--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,1050 +456,738 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44048</v>
+        <v>44475</v>
       </c>
       <c r="B2" t="n">
-        <v>2713.287</v>
+        <v>4130.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44055</v>
+        <v>44482</v>
       </c>
       <c r="B3" t="n">
-        <v>2788.961</v>
+        <v>4194.503</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44062</v>
+        <v>44489</v>
       </c>
       <c r="B4" t="n">
-        <v>2827.685</v>
+        <v>4134.714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44069</v>
+        <v>44496</v>
       </c>
       <c r="B5" t="n">
-        <v>2815.794</v>
+        <v>4077.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>44076</v>
+        <v>44503</v>
       </c>
       <c r="B6" t="n">
-        <v>2851.916</v>
+        <v>4086.336</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>44083</v>
+        <v>44510</v>
       </c>
       <c r="B7" t="n">
-        <v>2857.463</v>
+        <v>4169.041</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>44090</v>
+        <v>44517</v>
       </c>
       <c r="B8" t="n">
-        <v>2885.412</v>
+        <v>4209.802</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>44097</v>
+        <v>44524</v>
       </c>
       <c r="B9" t="n">
-        <v>2830.499</v>
+        <v>4162.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>44104</v>
+        <v>44531</v>
       </c>
       <c r="B10" t="n">
-        <v>2839.316</v>
+        <v>4224.865</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>44111</v>
+        <v>44538</v>
       </c>
       <c r="B11" t="n">
-        <v>2840.86</v>
+        <v>4275.806</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>44118</v>
+        <v>44545</v>
       </c>
       <c r="B12" t="n">
-        <v>2861.929</v>
+        <v>4251.431</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>44125</v>
+        <v>44552</v>
       </c>
       <c r="B13" t="n">
-        <v>2860.48</v>
+        <v>4185.009</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>44132</v>
+        <v>44559</v>
       </c>
       <c r="B14" t="n">
-        <v>2880.781</v>
+        <v>4116.196</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>44139</v>
+        <v>44566</v>
       </c>
       <c r="B15" t="n">
-        <v>2966.737</v>
+        <v>3859.731</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>44146</v>
+        <v>44573</v>
       </c>
       <c r="B16" t="n">
-        <v>2976.17</v>
+        <v>3973.554</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>44153</v>
+        <v>44580</v>
       </c>
       <c r="B17" t="n">
-        <v>3043.822</v>
+        <v>3932.521</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>44160</v>
+        <v>44587</v>
       </c>
       <c r="B18" t="n">
-        <v>3083.636</v>
+        <v>3796.174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>44167</v>
+        <v>44594</v>
       </c>
       <c r="B19" t="n">
-        <v>3117.307</v>
+        <v>3789.714</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>44174</v>
+        <v>44601</v>
       </c>
       <c r="B20" t="n">
-        <v>3117.48</v>
+        <v>3771.911</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>44181</v>
+        <v>44608</v>
       </c>
       <c r="B21" t="n">
-        <v>3168.24</v>
+        <v>3799.973</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>44188</v>
+        <v>44615</v>
       </c>
       <c r="B22" t="n">
-        <v>3143.041</v>
+        <v>3769.869</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>44195</v>
+        <v>44622</v>
       </c>
       <c r="B23" t="n">
-        <v>3122.156</v>
+        <v>3844.716</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>44202</v>
+        <v>44629</v>
       </c>
       <c r="B24" t="n">
-        <v>3068.284</v>
+        <v>3959.659</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>44209</v>
+        <v>44636</v>
       </c>
       <c r="B25" t="n">
-        <v>3183.917</v>
+        <v>3961.721</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>44216</v>
+        <v>44643</v>
       </c>
       <c r="B26" t="n">
-        <v>3154.624</v>
+        <v>3801.095</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>44223</v>
+        <v>44650</v>
       </c>
       <c r="B27" t="n">
-        <v>3163.008</v>
+        <v>3829.68</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>44230</v>
+        <v>44657</v>
       </c>
       <c r="B28" t="n">
-        <v>3193.118</v>
+        <v>3834.183</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>44237</v>
+        <v>44664</v>
       </c>
       <c r="B29" t="n">
-        <v>3258.919</v>
+        <v>3823.644</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>44244</v>
+        <v>44671</v>
       </c>
       <c r="B30" t="n">
-        <v>3378.907</v>
+        <v>3652.101</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>44251</v>
+        <v>44678</v>
       </c>
       <c r="B31" t="n">
-        <v>3369.02</v>
+        <v>3331.982</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>44258</v>
+        <v>44685</v>
       </c>
       <c r="B32" t="n">
-        <v>3503.12</v>
+        <v>3296.085</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>44265</v>
+        <v>44692</v>
       </c>
       <c r="B33" t="n">
-        <v>3592.01</v>
+        <v>3288.552</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>44272</v>
+        <v>44699</v>
       </c>
       <c r="B34" t="n">
-        <v>3681.03</v>
+        <v>3356.377</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44279</v>
+        <v>44706</v>
       </c>
       <c r="B35" t="n">
-        <v>3826.375</v>
+        <v>3306.18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>44286</v>
+        <v>44713</v>
       </c>
       <c r="B36" t="n">
-        <v>3876.162</v>
+        <v>3322.03</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>44293</v>
+        <v>44720</v>
       </c>
       <c r="B37" t="n">
-        <v>3932.949</v>
+        <v>3339.405</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>44300</v>
+        <v>44727</v>
       </c>
       <c r="B38" t="n">
-        <v>3977.813</v>
+        <v>3283.954</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>44307</v>
+        <v>44734</v>
       </c>
       <c r="B39" t="n">
-        <v>3825.455</v>
+        <v>3147.556</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>44314</v>
+        <v>44741</v>
       </c>
       <c r="B40" t="n">
-        <v>3829.269</v>
+        <v>3130.087</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>44321</v>
+        <v>44748</v>
       </c>
       <c r="B41" t="n">
-        <v>3873.728</v>
+        <v>3190.627</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>44328</v>
+        <v>44755</v>
       </c>
       <c r="B42" t="n">
-        <v>3947.565</v>
+        <v>3273.436</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>44335</v>
+        <v>44762</v>
       </c>
       <c r="B43" t="n">
-        <v>3919.807</v>
+        <v>3284.324</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>44342</v>
+        <v>44769</v>
       </c>
       <c r="B44" t="n">
-        <v>3805.178</v>
+        <v>3256.875</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>44349</v>
+        <v>44776</v>
       </c>
       <c r="B45" t="n">
-        <v>3814.127</v>
+        <v>3259.011</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>44356</v>
+        <v>44783</v>
       </c>
       <c r="B46" t="n">
-        <v>3874.371</v>
+        <v>3348.147</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>44363</v>
+        <v>44790</v>
       </c>
       <c r="B47" t="n">
-        <v>3940.038</v>
+        <v>3346.75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>44370</v>
+        <v>44797</v>
       </c>
       <c r="B48" t="n">
-        <v>3808.042</v>
+        <v>3307.365</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>44377</v>
+        <v>44804</v>
       </c>
       <c r="B49" t="n">
-        <v>3780.791</v>
+        <v>3248.654</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>44384</v>
+        <v>44811</v>
       </c>
       <c r="B50" t="n">
-        <v>3870.568</v>
+        <v>3285.498</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>44391</v>
+        <v>44818</v>
       </c>
       <c r="B51" t="n">
-        <v>3903.058</v>
+        <v>3234.928</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>44398</v>
+        <v>44825</v>
       </c>
       <c r="B52" t="n">
-        <v>3972.94</v>
+        <v>3104.032</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>44405</v>
+        <v>44832</v>
       </c>
       <c r="B53" t="n">
-        <v>3984.371</v>
+        <v>2960.598</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>44412</v>
+        <v>44839</v>
       </c>
       <c r="B54" t="n">
-        <v>4005.578</v>
+        <v>2972.874</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>44419</v>
+        <v>44846</v>
       </c>
       <c r="B55" t="n">
-        <v>4090.506</v>
+        <v>3087.912</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>44426</v>
+        <v>44853</v>
       </c>
       <c r="B56" t="n">
-        <v>4186.711</v>
+        <v>3092.044</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>44433</v>
+        <v>44860</v>
       </c>
       <c r="B57" t="n">
-        <v>4167.748</v>
+        <v>3042.838</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>44440</v>
+        <v>44867</v>
       </c>
       <c r="B58" t="n">
-        <v>4193.981</v>
+        <v>3062.727</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>44447</v>
+        <v>44874</v>
       </c>
       <c r="B59" t="n">
-        <v>4250.506</v>
+        <v>3067.888</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>44454</v>
+        <v>44881</v>
       </c>
       <c r="B60" t="n">
-        <v>4271.184</v>
+        <v>3128.277</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>44461</v>
+        <v>44888</v>
       </c>
       <c r="B61" t="n">
-        <v>4156.747</v>
+        <v>3160.73</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>44468</v>
+        <v>44895</v>
       </c>
       <c r="B62" t="n">
-        <v>4125.348</v>
+        <v>3168.995</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>44475</v>
+        <v>44902</v>
       </c>
       <c r="B63" t="n">
-        <v>4130.05</v>
+        <v>3199.048</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>44482</v>
+        <v>44909</v>
       </c>
       <c r="B64" t="n">
-        <v>4194.503</v>
+        <v>3188.634</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>44489</v>
+        <v>44916</v>
       </c>
       <c r="B65" t="n">
-        <v>4134.714</v>
+        <v>3088.621</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>44496</v>
+        <v>44923</v>
       </c>
       <c r="B66" t="n">
-        <v>4077.17</v>
+        <v>3017.889</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>44503</v>
+        <v>44930</v>
       </c>
       <c r="B67" t="n">
-        <v>4086.336</v>
+        <v>2830.144</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>44510</v>
+        <v>44937</v>
       </c>
       <c r="B68" t="n">
-        <v>4169.041</v>
+        <v>3081.237</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>44517</v>
+        <v>44944</v>
       </c>
       <c r="B69" t="n">
-        <v>4209.802</v>
+        <v>3147.332</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>44524</v>
+        <v>44951</v>
       </c>
       <c r="B70" t="n">
-        <v>4162.81</v>
+        <v>3031.889</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>44531</v>
+        <v>44958</v>
       </c>
       <c r="B71" t="n">
-        <v>4224.865</v>
+        <v>3015.506</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>44538</v>
+        <v>44965</v>
       </c>
       <c r="B72" t="n">
-        <v>4275.806</v>
+        <v>3037.584</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>44545</v>
+        <v>44972</v>
       </c>
       <c r="B73" t="n">
-        <v>4251.431</v>
+        <v>3041.038</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>44552</v>
+        <v>44979</v>
       </c>
       <c r="B74" t="n">
-        <v>4185.009</v>
+        <v>3016.577</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>44559</v>
+        <v>44986</v>
       </c>
       <c r="B75" t="n">
-        <v>4116.196</v>
+        <v>2998.303</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>44566</v>
+        <v>44993</v>
       </c>
       <c r="B76" t="n">
-        <v>3859.731</v>
+        <v>2999.72</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>44573</v>
+        <v>45000</v>
       </c>
       <c r="B77" t="n">
-        <v>3973.554</v>
+        <v>3251.482</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>44580</v>
+        <v>45007</v>
       </c>
       <c r="B78" t="n">
-        <v>3932.521</v>
+        <v>3425.075</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>44587</v>
+        <v>45014</v>
       </c>
       <c r="B79" t="n">
-        <v>3796.174</v>
+        <v>3437.592</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>44594</v>
+        <v>45021</v>
       </c>
       <c r="B80" t="n">
-        <v>3789.714</v>
+        <v>3292.058</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>44601</v>
+        <v>45028</v>
       </c>
       <c r="B81" t="n">
-        <v>3771.911</v>
+        <v>3413.989</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>44608</v>
+        <v>45035</v>
       </c>
       <c r="B82" t="n">
-        <v>3799.973</v>
+        <v>3303.152</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>44615</v>
+        <v>45042</v>
       </c>
       <c r="B83" t="n">
-        <v>3769.869</v>
+        <v>3135.655</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>44622</v>
+        <v>45049</v>
       </c>
       <c r="B84" t="n">
-        <v>3844.716</v>
+        <v>3089.706</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>44629</v>
+        <v>45056</v>
       </c>
       <c r="B85" t="n">
-        <v>3959.659</v>
+        <v>3196.429</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>44636</v>
+        <v>45063</v>
       </c>
       <c r="B86" t="n">
-        <v>3961.721</v>
+        <v>3248.878</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>44643</v>
+        <v>45070</v>
       </c>
       <c r="B87" t="n">
-        <v>3801.095</v>
+        <v>3240.172</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>44650</v>
+        <v>45077</v>
       </c>
       <c r="B88" t="n">
-        <v>3829.68</v>
+        <v>3309.447</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>44657</v>
+        <v>45084</v>
       </c>
       <c r="B89" t="n">
-        <v>3834.183</v>
+        <v>3349.751</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>44664</v>
+        <v>45091</v>
       </c>
       <c r="B90" t="n">
-        <v>3823.644</v>
+        <v>3325.261</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>44671</v>
+        <v>45098</v>
       </c>
       <c r="B91" t="n">
-        <v>3652.101</v>
+        <v>3251.558</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>44678</v>
+        <v>45105</v>
       </c>
       <c r="B92" t="n">
-        <v>3331.982</v>
+        <v>3171.567</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>44685</v>
+        <v>45112</v>
       </c>
       <c r="B93" t="n">
-        <v>3296.085</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="3" t="n">
-        <v>44692</v>
-      </c>
-      <c r="B94" t="n">
-        <v>3288.552</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="3" t="n">
-        <v>44699</v>
-      </c>
-      <c r="B95" t="n">
-        <v>3356.377</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="3" t="n">
-        <v>44706</v>
-      </c>
-      <c r="B96" t="n">
-        <v>3306.18</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="3" t="n">
-        <v>44713</v>
-      </c>
-      <c r="B97" t="n">
-        <v>3322.03</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="3" t="n">
-        <v>44720</v>
-      </c>
-      <c r="B98" t="n">
-        <v>3339.405</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="n">
-        <v>44727</v>
-      </c>
-      <c r="B99" t="n">
-        <v>3283.954</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="3" t="n">
-        <v>44734</v>
-      </c>
-      <c r="B100" t="n">
-        <v>3147.556</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="n">
-        <v>44741</v>
-      </c>
-      <c r="B101" t="n">
-        <v>3130.087</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="n">
-        <v>44748</v>
-      </c>
-      <c r="B102" t="n">
-        <v>3190.627</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="3" t="n">
-        <v>44755</v>
-      </c>
-      <c r="B103" t="n">
-        <v>3273.436</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="n">
-        <v>44762</v>
-      </c>
-      <c r="B104" t="n">
-        <v>3284.324</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="3" t="n">
-        <v>44769</v>
-      </c>
-      <c r="B105" t="n">
-        <v>3256.875</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="3" t="n">
-        <v>44776</v>
-      </c>
-      <c r="B106" t="n">
-        <v>3259.011</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="3" t="n">
-        <v>44783</v>
-      </c>
-      <c r="B107" t="n">
-        <v>3348.147</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="3" t="n">
-        <v>44790</v>
-      </c>
-      <c r="B108" t="n">
-        <v>3346.75</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="n">
-        <v>44797</v>
-      </c>
-      <c r="B109" t="n">
-        <v>3307.365</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="3" t="n">
-        <v>44804</v>
-      </c>
-      <c r="B110" t="n">
-        <v>3248.654</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="3" t="n">
-        <v>44811</v>
-      </c>
-      <c r="B111" t="n">
-        <v>3285.498</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="3" t="n">
-        <v>44818</v>
-      </c>
-      <c r="B112" t="n">
-        <v>3234.928</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="3" t="n">
-        <v>44825</v>
-      </c>
-      <c r="B113" t="n">
-        <v>3104.032</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="3" t="n">
-        <v>44832</v>
-      </c>
-      <c r="B114" t="n">
-        <v>2960.598</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="3" t="n">
-        <v>44839</v>
-      </c>
-      <c r="B115" t="n">
-        <v>2972.874</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="3" t="n">
-        <v>44846</v>
-      </c>
-      <c r="B116" t="n">
-        <v>3087.912</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="n">
-        <v>44853</v>
-      </c>
-      <c r="B117" t="n">
-        <v>3092.044</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="3" t="n">
-        <v>44860</v>
-      </c>
-      <c r="B118" t="n">
-        <v>3042.838</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="3" t="n">
-        <v>44867</v>
-      </c>
-      <c r="B119" t="n">
-        <v>3062.727</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="3" t="n">
-        <v>44874</v>
-      </c>
-      <c r="B120" t="n">
-        <v>3067.888</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="3" t="n">
-        <v>44881</v>
-      </c>
-      <c r="B121" t="n">
-        <v>3128.277</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="3" t="n">
-        <v>44888</v>
-      </c>
-      <c r="B122" t="n">
-        <v>3160.73</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="n">
-        <v>44895</v>
-      </c>
-      <c r="B123" t="n">
-        <v>3168.995</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="3" t="n">
-        <v>44902</v>
-      </c>
-      <c r="B124" t="n">
-        <v>3199.048</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="3" t="n">
-        <v>44909</v>
-      </c>
-      <c r="B125" t="n">
-        <v>3188.634</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="3" t="n">
-        <v>44916</v>
-      </c>
-      <c r="B126" t="n">
-        <v>3088.621</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="3" t="n">
-        <v>44923</v>
-      </c>
-      <c r="B127" t="n">
-        <v>3017.889</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="3" t="n">
-        <v>44930</v>
-      </c>
-      <c r="B128" t="n">
-        <v>2830.144</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="3" t="n">
-        <v>44937</v>
-      </c>
-      <c r="B129" t="n">
-        <v>3081.237</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="3" t="n">
-        <v>44944</v>
-      </c>
-      <c r="B130" t="n">
-        <v>3147.332</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="3" t="n">
-        <v>44951</v>
-      </c>
-      <c r="B131" t="n">
-        <v>3031.889</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="3" t="n">
-        <v>44958</v>
-      </c>
-      <c r="B132" t="n">
-        <v>3015.506</v>
+        <v>3114.989</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1236,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-07-09</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1248,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-07-09</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1284,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>2023-07-05</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1368,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-02-02 15:36:03-06</t>
+          <t>2023-07-06 15:35:25-05</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1379,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2023-07-12</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2023-07-12</t>
         </is>
       </c>
     </row>

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1188,6 +1188,14 @@
       </c>
       <c r="B93" t="n">
         <v>3114.989</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3166.607</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1244,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-07-20</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1256,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-07-20</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1292,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-07-05</t>
+          <t>2023-07-12</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1376,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-07-06 15:35:25-05</t>
+          <t>2023-07-13 15:35:27-05</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1387,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1196,6 +1196,14 @@
       </c>
       <c r="B94" t="n">
         <v>3166.607</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3230.457</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1252,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2023-07-24</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1264,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2023-07-24</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1300,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-07-19</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1384,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-07-13 15:35:27-05</t>
+          <t>2023-07-20 15:35:27-05</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1395,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1204,6 +1204,14 @@
       </c>
       <c r="B95" t="n">
         <v>3230.457</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3172.244</v>
       </c>
     </row>
   </sheetData>
@@ -1252,7 +1260,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-03</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1272,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-03</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1308,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-07-26</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1392,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-07-20 15:35:27-05</t>
+          <t>2023-07-27 15:35:02-05</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1212,6 +1212,14 @@
       </c>
       <c r="B96" t="n">
         <v>3172.244</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3189.533</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +1268,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-04</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1280,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-08-04</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1316,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-07-26</t>
+          <t>2023-08-02</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1400,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-07-27 15:35:02-05</t>
+          <t>2023-08-03 15:35:02-05</t>
         </is>
       </c>
     </row>

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2023-08-09</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2023-08-09</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,6 +1220,22 @@
       </c>
       <c r="B97" t="n">
         <v>3189.533</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3222.856</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n">
+        <v>45154</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3245.971</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1284,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-08-22</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1296,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-08-22</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1332,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>2023-08-16</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1416,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-08-03 15:35:02-05</t>
+          <t>2023-08-17 15:35:51-05</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1427,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1236,6 +1236,38 @@
       </c>
       <c r="B99" t="n">
         <v>3245.971</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3186.789</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3238.345</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3307.291</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3335.459</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1316,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-09-16</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1328,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-09-16</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1364,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-09-13</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1448,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-08-17 15:35:51-05</t>
+          <t>2023-09-14 15:36:16-05</t>
         </is>
       </c>
     </row>

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1268,6 +1268,54 @@
       </c>
       <c r="B103" t="n">
         <v>3335.459</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3231.649</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n">
+        <v>45196</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3170.324</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3145.72</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3288.945</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3353.881</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3261.886</v>
       </c>
     </row>
   </sheetData>
@@ -1316,7 +1364,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-10-27</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1376,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-10-27</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1412,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-10-25</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1496,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-09-14 15:36:16-05</t>
+          <t>2023-10-26 15:35:02-05</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1507,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-10-29</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>2023-10-29</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,6 +1316,22 @@
       </c>
       <c r="B109" t="n">
         <v>3261.886</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3267.216</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3328.908</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1380,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-15</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1392,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-15</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1428,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>2023-11-08</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1512,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-10-26 15:35:02-05</t>
+          <t>2023-11-09 15:39:01-06</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1523,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1332,6 +1332,14 @@
       </c>
       <c r="B111" t="n">
         <v>3328.908</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3391.713</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1388,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2023-11-21</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1400,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2023-11-21</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1436,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2023-11-15</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1520,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-11-09 15:39:01-06</t>
+          <t>2023-11-16 15:36:02-06</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1531,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,10 +19,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -40,12 +47,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -66,12 +88,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -436,7 +458,7 @@
   </sheetPr>
   <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -455,7 +477,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>44475</v>
       </c>
       <c r="B2" t="n">
@@ -463,7 +485,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>44482</v>
       </c>
       <c r="B3" t="n">
@@ -471,7 +493,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>44489</v>
       </c>
       <c r="B4" t="n">
@@ -479,7 +501,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>44496</v>
       </c>
       <c r="B5" t="n">
@@ -487,7 +509,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>44503</v>
       </c>
       <c r="B6" t="n">
@@ -495,7 +517,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>44510</v>
       </c>
       <c r="B7" t="n">
@@ -503,7 +525,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>44517</v>
       </c>
       <c r="B8" t="n">
@@ -511,7 +533,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>44524</v>
       </c>
       <c r="B9" t="n">
@@ -519,7 +541,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="2" t="n">
         <v>44531</v>
       </c>
       <c r="B10" t="n">
@@ -527,7 +549,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="2" t="n">
         <v>44538</v>
       </c>
       <c r="B11" t="n">
@@ -535,7 +557,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="2" t="n">
         <v>44545</v>
       </c>
       <c r="B12" t="n">
@@ -543,7 +565,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="2" t="n">
         <v>44552</v>
       </c>
       <c r="B13" t="n">
@@ -551,7 +573,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="2" t="n">
         <v>44559</v>
       </c>
       <c r="B14" t="n">
@@ -559,7 +581,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="2" t="n">
         <v>44566</v>
       </c>
       <c r="B15" t="n">
@@ -567,7 +589,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="2" t="n">
         <v>44573</v>
       </c>
       <c r="B16" t="n">
@@ -575,7 +597,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="2" t="n">
         <v>44580</v>
       </c>
       <c r="B17" t="n">
@@ -583,7 +605,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="2" t="n">
         <v>44587</v>
       </c>
       <c r="B18" t="n">
@@ -591,7 +613,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="2" t="n">
         <v>44594</v>
       </c>
       <c r="B19" t="n">
@@ -599,7 +621,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="2" t="n">
         <v>44601</v>
       </c>
       <c r="B20" t="n">
@@ -607,7 +629,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="2" t="n">
         <v>44608</v>
       </c>
       <c r="B21" t="n">
@@ -615,7 +637,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="2" t="n">
         <v>44615</v>
       </c>
       <c r="B22" t="n">
@@ -623,7 +645,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="2" t="n">
         <v>44622</v>
       </c>
       <c r="B23" t="n">
@@ -631,7 +653,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="2" t="n">
         <v>44629</v>
       </c>
       <c r="B24" t="n">
@@ -639,7 +661,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="2" t="n">
         <v>44636</v>
       </c>
       <c r="B25" t="n">
@@ -647,7 +669,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="2" t="n">
         <v>44643</v>
       </c>
       <c r="B26" t="n">
@@ -655,7 +677,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="2" t="n">
         <v>44650</v>
       </c>
       <c r="B27" t="n">
@@ -663,7 +685,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="2" t="n">
         <v>44657</v>
       </c>
       <c r="B28" t="n">
@@ -671,7 +693,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="2" t="n">
         <v>44664</v>
       </c>
       <c r="B29" t="n">
@@ -679,7 +701,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="2" t="n">
         <v>44671</v>
       </c>
       <c r="B30" t="n">
@@ -687,7 +709,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="2" t="n">
         <v>44678</v>
       </c>
       <c r="B31" t="n">
@@ -695,7 +717,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="2" t="n">
         <v>44685</v>
       </c>
       <c r="B32" t="n">
@@ -703,7 +725,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="2" t="n">
         <v>44692</v>
       </c>
       <c r="B33" t="n">
@@ -711,7 +733,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="2" t="n">
         <v>44699</v>
       </c>
       <c r="B34" t="n">
@@ -719,7 +741,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="2" t="n">
         <v>44706</v>
       </c>
       <c r="B35" t="n">
@@ -727,7 +749,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="2" t="n">
         <v>44713</v>
       </c>
       <c r="B36" t="n">
@@ -735,7 +757,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="2" t="n">
         <v>44720</v>
       </c>
       <c r="B37" t="n">
@@ -743,7 +765,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="2" t="n">
         <v>44727</v>
       </c>
       <c r="B38" t="n">
@@ -751,7 +773,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="2" t="n">
         <v>44734</v>
       </c>
       <c r="B39" t="n">
@@ -759,7 +781,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="2" t="n">
         <v>44741</v>
       </c>
       <c r="B40" t="n">
@@ -767,7 +789,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="2" t="n">
         <v>44748</v>
       </c>
       <c r="B41" t="n">
@@ -775,7 +797,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="2" t="n">
         <v>44755</v>
       </c>
       <c r="B42" t="n">
@@ -783,7 +805,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="2" t="n">
         <v>44762</v>
       </c>
       <c r="B43" t="n">
@@ -791,7 +813,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="2" t="n">
         <v>44769</v>
       </c>
       <c r="B44" t="n">
@@ -799,7 +821,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="2" t="n">
         <v>44776</v>
       </c>
       <c r="B45" t="n">
@@ -807,7 +829,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="2" t="n">
         <v>44783</v>
       </c>
       <c r="B46" t="n">
@@ -815,7 +837,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="2" t="n">
         <v>44790</v>
       </c>
       <c r="B47" t="n">
@@ -823,7 +845,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="2" t="n">
         <v>44797</v>
       </c>
       <c r="B48" t="n">
@@ -831,7 +853,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="2" t="n">
         <v>44804</v>
       </c>
       <c r="B49" t="n">
@@ -839,7 +861,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="2" t="n">
         <v>44811</v>
       </c>
       <c r="B50" t="n">
@@ -847,7 +869,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="2" t="n">
         <v>44818</v>
       </c>
       <c r="B51" t="n">
@@ -855,7 +877,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="2" t="n">
         <v>44825</v>
       </c>
       <c r="B52" t="n">
@@ -863,7 +885,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="2" t="n">
         <v>44832</v>
       </c>
       <c r="B53" t="n">
@@ -871,7 +893,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="2" t="n">
         <v>44839</v>
       </c>
       <c r="B54" t="n">
@@ -879,7 +901,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="2" t="n">
         <v>44846</v>
       </c>
       <c r="B55" t="n">
@@ -887,7 +909,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="2" t="n">
         <v>44853</v>
       </c>
       <c r="B56" t="n">
@@ -895,7 +917,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="2" t="n">
         <v>44860</v>
       </c>
       <c r="B57" t="n">
@@ -903,7 +925,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="2" t="n">
         <v>44867</v>
       </c>
       <c r="B58" t="n">
@@ -911,7 +933,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="2" t="n">
         <v>44874</v>
       </c>
       <c r="B59" t="n">
@@ -919,7 +941,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="2" t="n">
         <v>44881</v>
       </c>
       <c r="B60" t="n">
@@ -927,7 +949,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="2" t="n">
         <v>44888</v>
       </c>
       <c r="B61" t="n">
@@ -935,7 +957,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="2" t="n">
         <v>44895</v>
       </c>
       <c r="B62" t="n">
@@ -943,7 +965,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="2" t="n">
         <v>44902</v>
       </c>
       <c r="B63" t="n">
@@ -951,7 +973,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="2" t="n">
         <v>44909</v>
       </c>
       <c r="B64" t="n">
@@ -959,7 +981,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="2" t="n">
         <v>44916</v>
       </c>
       <c r="B65" t="n">
@@ -967,7 +989,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="2" t="n">
         <v>44923</v>
       </c>
       <c r="B66" t="n">
@@ -975,7 +997,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="2" t="n">
         <v>44930</v>
       </c>
       <c r="B67" t="n">
@@ -983,7 +1005,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="2" t="n">
         <v>44937</v>
       </c>
       <c r="B68" t="n">
@@ -991,7 +1013,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="2" t="n">
         <v>44944</v>
       </c>
       <c r="B69" t="n">
@@ -999,7 +1021,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="2" t="n">
         <v>44951</v>
       </c>
       <c r="B70" t="n">
@@ -1007,7 +1029,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="2" t="n">
         <v>44958</v>
       </c>
       <c r="B71" t="n">
@@ -1015,7 +1037,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="2" t="n">
         <v>44965</v>
       </c>
       <c r="B72" t="n">
@@ -1023,7 +1045,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="B73" t="n">
@@ -1031,7 +1053,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="2" t="n">
         <v>44979</v>
       </c>
       <c r="B74" t="n">
@@ -1039,7 +1061,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="2" t="n">
         <v>44986</v>
       </c>
       <c r="B75" t="n">
@@ -1047,7 +1069,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="2" t="n">
         <v>44993</v>
       </c>
       <c r="B76" t="n">
@@ -1055,7 +1077,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="B77" t="n">
@@ -1063,7 +1085,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="2" t="n">
         <v>45007</v>
       </c>
       <c r="B78" t="n">
@@ -1071,7 +1093,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="n">
+      <c r="A79" s="2" t="n">
         <v>45014</v>
       </c>
       <c r="B79" t="n">
@@ -1079,7 +1101,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="n">
+      <c r="A80" s="2" t="n">
         <v>45021</v>
       </c>
       <c r="B80" t="n">
@@ -1087,7 +1109,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="n">
+      <c r="A81" s="2" t="n">
         <v>45028</v>
       </c>
       <c r="B81" t="n">
@@ -1095,7 +1117,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="n">
+      <c r="A82" s="2" t="n">
         <v>45035</v>
       </c>
       <c r="B82" t="n">
@@ -1103,7 +1125,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="n">
+      <c r="A83" s="2" t="n">
         <v>45042</v>
       </c>
       <c r="B83" t="n">
@@ -1111,7 +1133,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="n">
+      <c r="A84" s="2" t="n">
         <v>45049</v>
       </c>
       <c r="B84" t="n">
@@ -1119,7 +1141,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="n">
+      <c r="A85" s="2" t="n">
         <v>45056</v>
       </c>
       <c r="B85" t="n">
@@ -1127,7 +1149,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="n">
+      <c r="A86" s="2" t="n">
         <v>45063</v>
       </c>
       <c r="B86" t="n">
@@ -1135,7 +1157,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="n">
+      <c r="A87" s="2" t="n">
         <v>45070</v>
       </c>
       <c r="B87" t="n">
@@ -1143,7 +1165,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="n">
+      <c r="A88" s="2" t="n">
         <v>45077</v>
       </c>
       <c r="B88" t="n">
@@ -1151,7 +1173,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="n">
+      <c r="A89" s="2" t="n">
         <v>45084</v>
       </c>
       <c r="B89" t="n">
@@ -1159,7 +1181,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="n">
+      <c r="A90" s="2" t="n">
         <v>45091</v>
       </c>
       <c r="B90" t="n">
@@ -1167,7 +1189,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="n">
+      <c r="A91" s="2" t="n">
         <v>45098</v>
       </c>
       <c r="B91" t="n">
@@ -1175,7 +1197,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="n">
+      <c r="A92" s="2" t="n">
         <v>45105</v>
       </c>
       <c r="B92" t="n">
@@ -1183,7 +1205,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="n">
+      <c r="A93" s="2" t="n">
         <v>45112</v>
       </c>
       <c r="B93" t="n">
@@ -1191,7 +1213,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="n">
+      <c r="A94" s="2" t="n">
         <v>45119</v>
       </c>
       <c r="B94" t="n">
@@ -1199,7 +1221,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="n">
+      <c r="A95" s="2" t="n">
         <v>45126</v>
       </c>
       <c r="B95" t="n">
@@ -1207,7 +1229,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="n">
+      <c r="A96" s="2" t="n">
         <v>45133</v>
       </c>
       <c r="B96" t="n">
@@ -1215,7 +1237,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="n">
+      <c r="A97" s="2" t="n">
         <v>45140</v>
       </c>
       <c r="B97" t="n">
@@ -1223,7 +1245,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="n">
+      <c r="A98" s="2" t="n">
         <v>45147</v>
       </c>
       <c r="B98" t="n">
@@ -1231,7 +1253,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="n">
+      <c r="A99" s="2" t="n">
         <v>45154</v>
       </c>
       <c r="B99" t="n">
@@ -1239,7 +1261,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="n">
+      <c r="A100" s="2" t="n">
         <v>45161</v>
       </c>
       <c r="B100" t="n">
@@ -1247,7 +1269,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="n">
+      <c r="A101" s="2" t="n">
         <v>45168</v>
       </c>
       <c r="B101" t="n">
@@ -1255,7 +1277,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="n">
+      <c r="A102" s="2" t="n">
         <v>45175</v>
       </c>
       <c r="B102" t="n">
@@ -1263,7 +1285,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="n">
+      <c r="A103" s="2" t="n">
         <v>45182</v>
       </c>
       <c r="B103" t="n">
@@ -1271,7 +1293,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="n">
+      <c r="A104" s="2" t="n">
         <v>45189</v>
       </c>
       <c r="B104" t="n">
@@ -1279,7 +1301,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="n">
+      <c r="A105" s="2" t="n">
         <v>45196</v>
       </c>
       <c r="B105" t="n">
@@ -1287,7 +1309,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="n">
+      <c r="A106" s="2" t="n">
         <v>45203</v>
       </c>
       <c r="B106" t="n">
@@ -1295,7 +1317,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="n">
+      <c r="A107" s="2" t="n">
         <v>45210</v>
       </c>
       <c r="B107" t="n">
@@ -1303,7 +1325,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="n">
+      <c r="A108" s="2" t="n">
         <v>45217</v>
       </c>
       <c r="B108" t="n">
@@ -1311,7 +1333,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="n">
+      <c r="A109" s="2" t="n">
         <v>45224</v>
       </c>
       <c r="B109" t="n">
@@ -1319,7 +1341,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="n">
+      <c r="A110" s="2" t="n">
         <v>45231</v>
       </c>
       <c r="B110" t="n">
@@ -1327,7 +1349,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="n">
+      <c r="A111" s="2" t="n">
         <v>45238</v>
       </c>
       <c r="B111" t="n">
@@ -1335,7 +1357,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="n">
+      <c r="A112" s="2" t="n">
         <v>45245</v>
       </c>
       <c r="B112" t="n">
@@ -1343,7 +1365,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1362,14 +1384,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>WRESBAL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
@@ -1381,31 +1403,31 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>realtime_start</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-24</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>realtime_end</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-24</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
@@ -1417,7 +1439,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>observation_start</t>
         </is>
@@ -1429,7 +1451,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>observation_end</t>
         </is>
@@ -1441,7 +1463,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>frequency</t>
         </is>
@@ -1453,7 +1475,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>frequency_short</t>
         </is>
@@ -1465,7 +1487,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>units</t>
         </is>
@@ -1477,7 +1499,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>units_short</t>
         </is>
@@ -1489,7 +1511,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>seasonal_adjustment</t>
         </is>
@@ -1501,7 +1523,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>seasonal_adjustment_short</t>
         </is>
@@ -1513,7 +1535,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>last_updated</t>
         </is>
@@ -1525,7 +1547,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>popularity</t>
         </is>
@@ -1535,7 +1557,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>notes</t>
         </is>

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1362,6 +1362,14 @@
       </c>
       <c r="B112" t="n">
         <v>3391.713</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3453.853</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1418,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1430,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1466,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2023-11-22</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1550,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-11-16 15:36:02-06</t>
+          <t>2023-11-24 15:39:02-06</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1561,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,898 +478,954 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44475</v>
+        <v>44440</v>
       </c>
       <c r="B2" t="n">
-        <v>4130.05</v>
+        <v>4193.981</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44482</v>
+        <v>44447</v>
       </c>
       <c r="B3" t="n">
-        <v>4194.503</v>
+        <v>4250.506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44489</v>
+        <v>44454</v>
       </c>
       <c r="B4" t="n">
-        <v>4134.714</v>
+        <v>4271.184</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44496</v>
+        <v>44461</v>
       </c>
       <c r="B5" t="n">
-        <v>4077.17</v>
+        <v>4156.747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44503</v>
+        <v>44468</v>
       </c>
       <c r="B6" t="n">
-        <v>4086.336</v>
+        <v>4125.348</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44510</v>
+        <v>44475</v>
       </c>
       <c r="B7" t="n">
-        <v>4169.041</v>
+        <v>4130.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44517</v>
+        <v>44482</v>
       </c>
       <c r="B8" t="n">
-        <v>4209.802</v>
+        <v>4194.503</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44524</v>
+        <v>44489</v>
       </c>
       <c r="B9" t="n">
-        <v>4162.81</v>
+        <v>4134.714</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44531</v>
+        <v>44496</v>
       </c>
       <c r="B10" t="n">
-        <v>4224.865</v>
+        <v>4077.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44538</v>
+        <v>44503</v>
       </c>
       <c r="B11" t="n">
-        <v>4275.806</v>
+        <v>4086.336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44545</v>
+        <v>44510</v>
       </c>
       <c r="B12" t="n">
-        <v>4251.431</v>
+        <v>4169.041</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44552</v>
+        <v>44517</v>
       </c>
       <c r="B13" t="n">
-        <v>4185.009</v>
+        <v>4209.802</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44559</v>
+        <v>44524</v>
       </c>
       <c r="B14" t="n">
-        <v>4116.196</v>
+        <v>4162.81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44566</v>
+        <v>44531</v>
       </c>
       <c r="B15" t="n">
-        <v>3859.731</v>
+        <v>4224.865</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44573</v>
+        <v>44538</v>
       </c>
       <c r="B16" t="n">
-        <v>3973.554</v>
+        <v>4275.806</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44580</v>
+        <v>44545</v>
       </c>
       <c r="B17" t="n">
-        <v>3932.521</v>
+        <v>4251.431</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44587</v>
+        <v>44552</v>
       </c>
       <c r="B18" t="n">
-        <v>3796.174</v>
+        <v>4185.009</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44594</v>
+        <v>44559</v>
       </c>
       <c r="B19" t="n">
-        <v>3789.714</v>
+        <v>4116.196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44601</v>
+        <v>44566</v>
       </c>
       <c r="B20" t="n">
-        <v>3771.911</v>
+        <v>3859.731</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44608</v>
+        <v>44573</v>
       </c>
       <c r="B21" t="n">
-        <v>3799.973</v>
+        <v>3973.554</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44615</v>
+        <v>44580</v>
       </c>
       <c r="B22" t="n">
-        <v>3769.869</v>
+        <v>3932.521</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44622</v>
+        <v>44587</v>
       </c>
       <c r="B23" t="n">
-        <v>3844.716</v>
+        <v>3796.174</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44629</v>
+        <v>44594</v>
       </c>
       <c r="B24" t="n">
-        <v>3959.659</v>
+        <v>3789.714</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44636</v>
+        <v>44601</v>
       </c>
       <c r="B25" t="n">
-        <v>3961.721</v>
+        <v>3771.911</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44643</v>
+        <v>44608</v>
       </c>
       <c r="B26" t="n">
-        <v>3801.095</v>
+        <v>3799.973</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44650</v>
+        <v>44615</v>
       </c>
       <c r="B27" t="n">
-        <v>3829.68</v>
+        <v>3769.869</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44657</v>
+        <v>44622</v>
       </c>
       <c r="B28" t="n">
-        <v>3834.183</v>
+        <v>3844.716</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44664</v>
+        <v>44629</v>
       </c>
       <c r="B29" t="n">
-        <v>3823.644</v>
+        <v>3959.659</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44671</v>
+        <v>44636</v>
       </c>
       <c r="B30" t="n">
-        <v>3652.101</v>
+        <v>3961.721</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44678</v>
+        <v>44643</v>
       </c>
       <c r="B31" t="n">
-        <v>3331.982</v>
+        <v>3801.095</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44685</v>
+        <v>44650</v>
       </c>
       <c r="B32" t="n">
-        <v>3296.085</v>
+        <v>3829.68</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44692</v>
+        <v>44657</v>
       </c>
       <c r="B33" t="n">
-        <v>3288.552</v>
+        <v>3834.183</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44699</v>
+        <v>44664</v>
       </c>
       <c r="B34" t="n">
-        <v>3356.377</v>
+        <v>3823.644</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44706</v>
+        <v>44671</v>
       </c>
       <c r="B35" t="n">
-        <v>3306.18</v>
+        <v>3652.101</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44713</v>
+        <v>44678</v>
       </c>
       <c r="B36" t="n">
-        <v>3322.03</v>
+        <v>3331.982</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44720</v>
+        <v>44685</v>
       </c>
       <c r="B37" t="n">
-        <v>3339.405</v>
+        <v>3296.085</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44727</v>
+        <v>44692</v>
       </c>
       <c r="B38" t="n">
-        <v>3283.954</v>
+        <v>3288.552</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44734</v>
+        <v>44699</v>
       </c>
       <c r="B39" t="n">
-        <v>3147.556</v>
+        <v>3356.377</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44741</v>
+        <v>44706</v>
       </c>
       <c r="B40" t="n">
-        <v>3130.087</v>
+        <v>3306.18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44748</v>
+        <v>44713</v>
       </c>
       <c r="B41" t="n">
-        <v>3190.627</v>
+        <v>3322.03</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44755</v>
+        <v>44720</v>
       </c>
       <c r="B42" t="n">
-        <v>3273.436</v>
+        <v>3339.405</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44762</v>
+        <v>44727</v>
       </c>
       <c r="B43" t="n">
-        <v>3284.324</v>
+        <v>3283.954</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44769</v>
+        <v>44734</v>
       </c>
       <c r="B44" t="n">
-        <v>3256.875</v>
+        <v>3147.556</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44776</v>
+        <v>44741</v>
       </c>
       <c r="B45" t="n">
-        <v>3259.011</v>
+        <v>3130.087</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44783</v>
+        <v>44748</v>
       </c>
       <c r="B46" t="n">
-        <v>3348.147</v>
+        <v>3190.627</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44790</v>
+        <v>44755</v>
       </c>
       <c r="B47" t="n">
-        <v>3346.75</v>
+        <v>3273.436</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44797</v>
+        <v>44762</v>
       </c>
       <c r="B48" t="n">
-        <v>3307.365</v>
+        <v>3284.324</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44804</v>
+        <v>44769</v>
       </c>
       <c r="B49" t="n">
-        <v>3248.654</v>
+        <v>3256.875</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44811</v>
+        <v>44776</v>
       </c>
       <c r="B50" t="n">
-        <v>3285.498</v>
+        <v>3259.011</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44818</v>
+        <v>44783</v>
       </c>
       <c r="B51" t="n">
-        <v>3234.928</v>
+        <v>3348.147</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44825</v>
+        <v>44790</v>
       </c>
       <c r="B52" t="n">
-        <v>3104.032</v>
+        <v>3346.75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44832</v>
+        <v>44797</v>
       </c>
       <c r="B53" t="n">
-        <v>2960.598</v>
+        <v>3307.365</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44839</v>
+        <v>44804</v>
       </c>
       <c r="B54" t="n">
-        <v>2972.874</v>
+        <v>3248.654</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44846</v>
+        <v>44811</v>
       </c>
       <c r="B55" t="n">
-        <v>3087.912</v>
+        <v>3285.498</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44853</v>
+        <v>44818</v>
       </c>
       <c r="B56" t="n">
-        <v>3092.044</v>
+        <v>3234.928</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44860</v>
+        <v>44825</v>
       </c>
       <c r="B57" t="n">
-        <v>3042.838</v>
+        <v>3104.032</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44867</v>
+        <v>44832</v>
       </c>
       <c r="B58" t="n">
-        <v>3062.727</v>
+        <v>2960.598</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44874</v>
+        <v>44839</v>
       </c>
       <c r="B59" t="n">
-        <v>3067.888</v>
+        <v>2972.874</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44881</v>
+        <v>44846</v>
       </c>
       <c r="B60" t="n">
-        <v>3128.277</v>
+        <v>3087.912</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44888</v>
+        <v>44853</v>
       </c>
       <c r="B61" t="n">
-        <v>3160.73</v>
+        <v>3092.044</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44895</v>
+        <v>44860</v>
       </c>
       <c r="B62" t="n">
-        <v>3168.995</v>
+        <v>3042.838</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44902</v>
+        <v>44867</v>
       </c>
       <c r="B63" t="n">
-        <v>3199.048</v>
+        <v>3062.727</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44909</v>
+        <v>44874</v>
       </c>
       <c r="B64" t="n">
-        <v>3188.634</v>
+        <v>3067.888</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44916</v>
+        <v>44881</v>
       </c>
       <c r="B65" t="n">
-        <v>3088.621</v>
+        <v>3128.277</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44923</v>
+        <v>44888</v>
       </c>
       <c r="B66" t="n">
-        <v>3017.889</v>
+        <v>3160.73</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44930</v>
+        <v>44895</v>
       </c>
       <c r="B67" t="n">
-        <v>2830.144</v>
+        <v>3168.995</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44937</v>
+        <v>44902</v>
       </c>
       <c r="B68" t="n">
-        <v>3081.237</v>
+        <v>3199.048</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44944</v>
+        <v>44909</v>
       </c>
       <c r="B69" t="n">
-        <v>3147.332</v>
+        <v>3188.634</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44951</v>
+        <v>44916</v>
       </c>
       <c r="B70" t="n">
-        <v>3031.889</v>
+        <v>3088.621</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44958</v>
+        <v>44923</v>
       </c>
       <c r="B71" t="n">
-        <v>3015.506</v>
+        <v>3017.889</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44965</v>
+        <v>44930</v>
       </c>
       <c r="B72" t="n">
-        <v>3037.584</v>
+        <v>2830.144</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44972</v>
+        <v>44937</v>
       </c>
       <c r="B73" t="n">
-        <v>3041.038</v>
+        <v>3081.237</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44979</v>
+        <v>44944</v>
       </c>
       <c r="B74" t="n">
-        <v>3016.577</v>
+        <v>3147.332</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44986</v>
+        <v>44951</v>
       </c>
       <c r="B75" t="n">
-        <v>2998.303</v>
+        <v>3031.889</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44993</v>
+        <v>44958</v>
       </c>
       <c r="B76" t="n">
-        <v>2999.72</v>
+        <v>3015.506</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45000</v>
+        <v>44965</v>
       </c>
       <c r="B77" t="n">
-        <v>3251.482</v>
+        <v>3037.584</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45007</v>
+        <v>44972</v>
       </c>
       <c r="B78" t="n">
-        <v>3425.075</v>
+        <v>3041.038</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45014</v>
+        <v>44979</v>
       </c>
       <c r="B79" t="n">
-        <v>3437.592</v>
+        <v>3016.577</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45021</v>
+        <v>44986</v>
       </c>
       <c r="B80" t="n">
-        <v>3292.058</v>
+        <v>2998.303</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45028</v>
+        <v>44993</v>
       </c>
       <c r="B81" t="n">
-        <v>3413.989</v>
+        <v>2999.72</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45035</v>
+        <v>45000</v>
       </c>
       <c r="B82" t="n">
-        <v>3303.152</v>
+        <v>3251.482</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45042</v>
+        <v>45007</v>
       </c>
       <c r="B83" t="n">
-        <v>3135.655</v>
+        <v>3425.075</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45049</v>
+        <v>45014</v>
       </c>
       <c r="B84" t="n">
-        <v>3089.706</v>
+        <v>3437.592</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45056</v>
+        <v>45021</v>
       </c>
       <c r="B85" t="n">
-        <v>3196.429</v>
+        <v>3292.058</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45063</v>
+        <v>45028</v>
       </c>
       <c r="B86" t="n">
-        <v>3248.878</v>
+        <v>3413.989</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45070</v>
+        <v>45035</v>
       </c>
       <c r="B87" t="n">
-        <v>3240.172</v>
+        <v>3303.152</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45077</v>
+        <v>45042</v>
       </c>
       <c r="B88" t="n">
-        <v>3309.447</v>
+        <v>3135.655</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45084</v>
+        <v>45049</v>
       </c>
       <c r="B89" t="n">
-        <v>3349.751</v>
+        <v>3089.706</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45091</v>
+        <v>45056</v>
       </c>
       <c r="B90" t="n">
-        <v>3325.261</v>
+        <v>3196.429</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45098</v>
+        <v>45063</v>
       </c>
       <c r="B91" t="n">
-        <v>3251.558</v>
+        <v>3248.878</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45105</v>
+        <v>45070</v>
       </c>
       <c r="B92" t="n">
-        <v>3171.567</v>
+        <v>3240.172</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45112</v>
+        <v>45077</v>
       </c>
       <c r="B93" t="n">
-        <v>3114.989</v>
+        <v>3309.447</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45119</v>
+        <v>45084</v>
       </c>
       <c r="B94" t="n">
-        <v>3166.607</v>
+        <v>3349.751</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45126</v>
+        <v>45091</v>
       </c>
       <c r="B95" t="n">
-        <v>3230.457</v>
+        <v>3325.261</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45133</v>
+        <v>45098</v>
       </c>
       <c r="B96" t="n">
-        <v>3172.244</v>
+        <v>3251.558</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45140</v>
+        <v>45105</v>
       </c>
       <c r="B97" t="n">
-        <v>3189.533</v>
+        <v>3171.567</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45147</v>
+        <v>45112</v>
       </c>
       <c r="B98" t="n">
-        <v>3222.856</v>
+        <v>3114.989</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45154</v>
+        <v>45119</v>
       </c>
       <c r="B99" t="n">
-        <v>3245.971</v>
+        <v>3166.607</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45161</v>
+        <v>45126</v>
       </c>
       <c r="B100" t="n">
-        <v>3186.789</v>
+        <v>3230.457</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45168</v>
+        <v>45133</v>
       </c>
       <c r="B101" t="n">
-        <v>3238.345</v>
+        <v>3172.244</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45175</v>
+        <v>45140</v>
       </c>
       <c r="B102" t="n">
-        <v>3307.291</v>
+        <v>3189.533</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45182</v>
+        <v>45147</v>
       </c>
       <c r="B103" t="n">
-        <v>3335.459</v>
+        <v>3222.856</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45189</v>
+        <v>45154</v>
       </c>
       <c r="B104" t="n">
-        <v>3231.649</v>
+        <v>3245.971</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45196</v>
+        <v>45161</v>
       </c>
       <c r="B105" t="n">
-        <v>3170.324</v>
+        <v>3186.789</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45203</v>
+        <v>45168</v>
       </c>
       <c r="B106" t="n">
-        <v>3145.72</v>
+        <v>3238.345</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45210</v>
+        <v>45175</v>
       </c>
       <c r="B107" t="n">
-        <v>3288.945</v>
+        <v>3307.291</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45217</v>
+        <v>45182</v>
       </c>
       <c r="B108" t="n">
-        <v>3353.881</v>
+        <v>3335.459</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45224</v>
+        <v>45189</v>
       </c>
       <c r="B109" t="n">
-        <v>3261.886</v>
+        <v>3231.649</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45231</v>
+        <v>45196</v>
       </c>
       <c r="B110" t="n">
-        <v>3267.216</v>
+        <v>3170.324</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45238</v>
+        <v>45203</v>
       </c>
       <c r="B111" t="n">
-        <v>3328.908</v>
+        <v>3145.72</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45245</v>
+        <v>45210</v>
       </c>
       <c r="B112" t="n">
-        <v>3391.713</v>
+        <v>3288.945</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3353.881</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3261.886</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3267.216</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3328.908</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3391.713</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>45252</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B118" t="n">
         <v>3453.853</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3441.581</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3513.374</v>
       </c>
     </row>
   </sheetData>
@@ -1418,7 +1474,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-08</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1486,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-08</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1522,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
+          <t>2023-12-06</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1606,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-11-24 15:39:02-06</t>
+          <t>2023-12-07 15:35:02-06</t>
         </is>
       </c>
     </row>

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,18 +20,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -47,27 +40,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -88,12 +66,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -458,7 +436,7 @@
   </sheetPr>
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -477,7 +455,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="B2" t="n">
@@ -485,7 +463,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44447</v>
       </c>
       <c r="B3" t="n">
@@ -493,7 +471,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44454</v>
       </c>
       <c r="B4" t="n">
@@ -501,7 +479,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44461</v>
       </c>
       <c r="B5" t="n">
@@ -509,7 +487,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44468</v>
       </c>
       <c r="B6" t="n">
@@ -517,7 +495,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44475</v>
       </c>
       <c r="B7" t="n">
@@ -525,7 +503,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44482</v>
       </c>
       <c r="B8" t="n">
@@ -533,7 +511,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44489</v>
       </c>
       <c r="B9" t="n">
@@ -541,7 +519,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44496</v>
       </c>
       <c r="B10" t="n">
@@ -549,7 +527,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44503</v>
       </c>
       <c r="B11" t="n">
@@ -557,7 +535,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44510</v>
       </c>
       <c r="B12" t="n">
@@ -565,7 +543,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44517</v>
       </c>
       <c r="B13" t="n">
@@ -573,7 +551,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>44524</v>
       </c>
       <c r="B14" t="n">
@@ -581,7 +559,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>44531</v>
       </c>
       <c r="B15" t="n">
@@ -589,7 +567,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>44538</v>
       </c>
       <c r="B16" t="n">
@@ -597,7 +575,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>44545</v>
       </c>
       <c r="B17" t="n">
@@ -605,7 +583,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>44552</v>
       </c>
       <c r="B18" t="n">
@@ -613,7 +591,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>44559</v>
       </c>
       <c r="B19" t="n">
@@ -621,7 +599,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>44566</v>
       </c>
       <c r="B20" t="n">
@@ -629,7 +607,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>44573</v>
       </c>
       <c r="B21" t="n">
@@ -637,7 +615,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>44580</v>
       </c>
       <c r="B22" t="n">
@@ -645,7 +623,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>44587</v>
       </c>
       <c r="B23" t="n">
@@ -653,7 +631,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>44594</v>
       </c>
       <c r="B24" t="n">
@@ -661,7 +639,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>44601</v>
       </c>
       <c r="B25" t="n">
@@ -669,7 +647,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>44608</v>
       </c>
       <c r="B26" t="n">
@@ -677,7 +655,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>44615</v>
       </c>
       <c r="B27" t="n">
@@ -685,7 +663,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>44622</v>
       </c>
       <c r="B28" t="n">
@@ -693,7 +671,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>44629</v>
       </c>
       <c r="B29" t="n">
@@ -701,7 +679,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>44636</v>
       </c>
       <c r="B30" t="n">
@@ -709,7 +687,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>44643</v>
       </c>
       <c r="B31" t="n">
@@ -717,7 +695,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>44650</v>
       </c>
       <c r="B32" t="n">
@@ -725,7 +703,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>44657</v>
       </c>
       <c r="B33" t="n">
@@ -733,7 +711,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>44664</v>
       </c>
       <c r="B34" t="n">
@@ -741,7 +719,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>44671</v>
       </c>
       <c r="B35" t="n">
@@ -749,7 +727,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="3" t="n">
         <v>44678</v>
       </c>
       <c r="B36" t="n">
@@ -757,7 +735,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="3" t="n">
         <v>44685</v>
       </c>
       <c r="B37" t="n">
@@ -765,7 +743,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="3" t="n">
         <v>44692</v>
       </c>
       <c r="B38" t="n">
@@ -773,7 +751,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="3" t="n">
         <v>44699</v>
       </c>
       <c r="B39" t="n">
@@ -781,7 +759,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="3" t="n">
         <v>44706</v>
       </c>
       <c r="B40" t="n">
@@ -789,7 +767,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="3" t="n">
         <v>44713</v>
       </c>
       <c r="B41" t="n">
@@ -797,7 +775,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="3" t="n">
         <v>44720</v>
       </c>
       <c r="B42" t="n">
@@ -805,7 +783,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="3" t="n">
         <v>44727</v>
       </c>
       <c r="B43" t="n">
@@ -813,7 +791,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="3" t="n">
         <v>44734</v>
       </c>
       <c r="B44" t="n">
@@ -821,7 +799,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="B45" t="n">
@@ -829,7 +807,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>44748</v>
       </c>
       <c r="B46" t="n">
@@ -837,7 +815,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="3" t="n">
         <v>44755</v>
       </c>
       <c r="B47" t="n">
@@ -845,7 +823,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="3" t="n">
         <v>44762</v>
       </c>
       <c r="B48" t="n">
@@ -853,7 +831,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="3" t="n">
         <v>44769</v>
       </c>
       <c r="B49" t="n">
@@ -861,7 +839,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="3" t="n">
         <v>44776</v>
       </c>
       <c r="B50" t="n">
@@ -869,7 +847,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="3" t="n">
         <v>44783</v>
       </c>
       <c r="B51" t="n">
@@ -877,7 +855,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="3" t="n">
         <v>44790</v>
       </c>
       <c r="B52" t="n">
@@ -885,7 +863,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="3" t="n">
         <v>44797</v>
       </c>
       <c r="B53" t="n">
@@ -893,7 +871,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="3" t="n">
         <v>44804</v>
       </c>
       <c r="B54" t="n">
@@ -901,7 +879,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="3" t="n">
         <v>44811</v>
       </c>
       <c r="B55" t="n">
@@ -909,7 +887,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="3" t="n">
         <v>44818</v>
       </c>
       <c r="B56" t="n">
@@ -917,7 +895,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>44825</v>
       </c>
       <c r="B57" t="n">
@@ -925,7 +903,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="3" t="n">
         <v>44832</v>
       </c>
       <c r="B58" t="n">
@@ -933,7 +911,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="3" t="n">
         <v>44839</v>
       </c>
       <c r="B59" t="n">
@@ -941,7 +919,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="3" t="n">
         <v>44846</v>
       </c>
       <c r="B60" t="n">
@@ -949,7 +927,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="3" t="n">
         <v>44853</v>
       </c>
       <c r="B61" t="n">
@@ -957,7 +935,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="3" t="n">
         <v>44860</v>
       </c>
       <c r="B62" t="n">
@@ -965,7 +943,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="3" t="n">
         <v>44867</v>
       </c>
       <c r="B63" t="n">
@@ -973,7 +951,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="3" t="n">
         <v>44874</v>
       </c>
       <c r="B64" t="n">
@@ -981,7 +959,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="3" t="n">
         <v>44881</v>
       </c>
       <c r="B65" t="n">
@@ -989,7 +967,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="3" t="n">
         <v>44888</v>
       </c>
       <c r="B66" t="n">
@@ -997,7 +975,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="3" t="n">
         <v>44895</v>
       </c>
       <c r="B67" t="n">
@@ -1005,7 +983,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="3" t="n">
         <v>44902</v>
       </c>
       <c r="B68" t="n">
@@ -1013,7 +991,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="3" t="n">
         <v>44909</v>
       </c>
       <c r="B69" t="n">
@@ -1021,7 +999,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="3" t="n">
         <v>44916</v>
       </c>
       <c r="B70" t="n">
@@ -1029,7 +1007,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="3" t="n">
         <v>44923</v>
       </c>
       <c r="B71" t="n">
@@ -1037,7 +1015,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="3" t="n">
         <v>44930</v>
       </c>
       <c r="B72" t="n">
@@ -1045,7 +1023,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="3" t="n">
         <v>44937</v>
       </c>
       <c r="B73" t="n">
@@ -1053,7 +1031,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="3" t="n">
         <v>44944</v>
       </c>
       <c r="B74" t="n">
@@ -1061,7 +1039,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="3" t="n">
         <v>44951</v>
       </c>
       <c r="B75" t="n">
@@ -1069,7 +1047,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="3" t="n">
         <v>44958</v>
       </c>
       <c r="B76" t="n">
@@ -1077,7 +1055,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="3" t="n">
         <v>44965</v>
       </c>
       <c r="B77" t="n">
@@ -1085,7 +1063,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="3" t="n">
         <v>44972</v>
       </c>
       <c r="B78" t="n">
@@ -1093,7 +1071,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="3" t="n">
         <v>44979</v>
       </c>
       <c r="B79" t="n">
@@ -1101,7 +1079,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="3" t="n">
         <v>44986</v>
       </c>
       <c r="B80" t="n">
@@ -1109,7 +1087,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="3" t="n">
         <v>44993</v>
       </c>
       <c r="B81" t="n">
@@ -1117,7 +1095,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="3" t="n">
         <v>45000</v>
       </c>
       <c r="B82" t="n">
@@ -1125,7 +1103,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="3" t="n">
         <v>45007</v>
       </c>
       <c r="B83" t="n">
@@ -1133,7 +1111,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="3" t="n">
         <v>45014</v>
       </c>
       <c r="B84" t="n">
@@ -1141,7 +1119,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="3" t="n">
         <v>45021</v>
       </c>
       <c r="B85" t="n">
@@ -1149,7 +1127,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="3" t="n">
         <v>45028</v>
       </c>
       <c r="B86" t="n">
@@ -1157,7 +1135,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="3" t="n">
         <v>45035</v>
       </c>
       <c r="B87" t="n">
@@ -1165,7 +1143,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="3" t="n">
         <v>45042</v>
       </c>
       <c r="B88" t="n">
@@ -1173,7 +1151,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="3" t="n">
         <v>45049</v>
       </c>
       <c r="B89" t="n">
@@ -1181,7 +1159,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="3" t="n">
         <v>45056</v>
       </c>
       <c r="B90" t="n">
@@ -1189,7 +1167,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="3" t="n">
         <v>45063</v>
       </c>
       <c r="B91" t="n">
@@ -1197,7 +1175,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="3" t="n">
         <v>45070</v>
       </c>
       <c r="B92" t="n">
@@ -1205,7 +1183,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="B93" t="n">
@@ -1213,7 +1191,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="3" t="n">
         <v>45084</v>
       </c>
       <c r="B94" t="n">
@@ -1221,7 +1199,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="3" t="n">
         <v>45091</v>
       </c>
       <c r="B95" t="n">
@@ -1229,7 +1207,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="3" t="n">
         <v>45098</v>
       </c>
       <c r="B96" t="n">
@@ -1237,7 +1215,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="3" t="n">
         <v>45105</v>
       </c>
       <c r="B97" t="n">
@@ -1245,7 +1223,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="3" t="n">
         <v>45112</v>
       </c>
       <c r="B98" t="n">
@@ -1253,7 +1231,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="3" t="n">
         <v>45119</v>
       </c>
       <c r="B99" t="n">
@@ -1261,7 +1239,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="3" t="n">
         <v>45126</v>
       </c>
       <c r="B100" t="n">
@@ -1269,7 +1247,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="3" t="n">
         <v>45133</v>
       </c>
       <c r="B101" t="n">
@@ -1277,7 +1255,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="3" t="n">
         <v>45140</v>
       </c>
       <c r="B102" t="n">
@@ -1285,7 +1263,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="3" t="n">
         <v>45147</v>
       </c>
       <c r="B103" t="n">
@@ -1293,7 +1271,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="3" t="n">
         <v>45154</v>
       </c>
       <c r="B104" t="n">
@@ -1301,7 +1279,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="3" t="n">
         <v>45161</v>
       </c>
       <c r="B105" t="n">
@@ -1309,7 +1287,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="3" t="n">
         <v>45168</v>
       </c>
       <c r="B106" t="n">
@@ -1317,7 +1295,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="3" t="n">
         <v>45175</v>
       </c>
       <c r="B107" t="n">
@@ -1325,7 +1303,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="3" t="n">
         <v>45182</v>
       </c>
       <c r="B108" t="n">
@@ -1333,7 +1311,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="3" t="n">
         <v>45189</v>
       </c>
       <c r="B109" t="n">
@@ -1341,7 +1319,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="3" t="n">
         <v>45196</v>
       </c>
       <c r="B110" t="n">
@@ -1349,7 +1327,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="3" t="n">
         <v>45203</v>
       </c>
       <c r="B111" t="n">
@@ -1357,7 +1335,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="3" t="n">
         <v>45210</v>
       </c>
       <c r="B112" t="n">
@@ -1365,7 +1343,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="3" t="n">
         <v>45217</v>
       </c>
       <c r="B113" t="n">
@@ -1373,7 +1351,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="3" t="n">
         <v>45224</v>
       </c>
       <c r="B114" t="n">
@@ -1381,7 +1359,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="3" t="n">
         <v>45231</v>
       </c>
       <c r="B115" t="n">
@@ -1389,7 +1367,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="3" t="n">
         <v>45238</v>
       </c>
       <c r="B116" t="n">
@@ -1397,7 +1375,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="3" t="n">
         <v>45245</v>
       </c>
       <c r="B117" t="n">
@@ -1405,7 +1383,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="3" t="n">
         <v>45252</v>
       </c>
       <c r="B118" t="n">
@@ -1413,7 +1391,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="3" t="n">
         <v>45259</v>
       </c>
       <c r="B119" t="n">
@@ -1421,7 +1399,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="3" t="n">
         <v>45266</v>
       </c>
       <c r="B120" t="n">
@@ -1429,7 +1407,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1448,14 +1426,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>WRESBAL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
@@ -1467,31 +1445,31 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>realtime_start</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2023-12-10</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>realtime_end</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2023-12-10</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
@@ -1503,7 +1481,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>observation_start</t>
         </is>
@@ -1515,7 +1493,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>observation_end</t>
         </is>
@@ -1527,7 +1505,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>frequency</t>
         </is>
@@ -1539,7 +1517,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>frequency_short</t>
         </is>
@@ -1551,7 +1529,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>units</t>
         </is>
@@ -1563,7 +1541,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>units_short</t>
         </is>
@@ -1575,7 +1553,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>seasonal_adjustment</t>
         </is>
@@ -1587,7 +1565,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>seasonal_adjustment_short</t>
         </is>
@@ -1599,7 +1577,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>last_updated</t>
         </is>
@@ -1611,17 +1589,17 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>popularity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>notes</t>
         </is>

--- a/NetLiquidity/FRED_Data/WRESBAL.xlsx
+++ b/NetLiquidity/FRED_Data/WRESBAL.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,10 +19,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -40,12 +47,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -66,12 +88,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -434,9 +456,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B748"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -455,959 +477,5983 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
+        <v>40058</v>
+      </c>
+      <c r="B2" t="n">
+        <v>837.154</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>40065</v>
+      </c>
+      <c r="B3" t="n">
+        <v>859.581</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>40072</v>
+      </c>
+      <c r="B4" t="n">
+        <v>867.697</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>40079</v>
+      </c>
+      <c r="B5" t="n">
+        <v>889.393</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>40086</v>
+      </c>
+      <c r="B6" t="n">
+        <v>924.381</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>40093</v>
+      </c>
+      <c r="B7" t="n">
+        <v>958.831</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>40100</v>
+      </c>
+      <c r="B8" t="n">
+        <v>981.622</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>40107</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1034.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>40114</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1085.378</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>40121</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1084.635</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>40128</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1035.227</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>40135</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1101.812</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>40142</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1156.24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>40149</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1139.438</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>40156</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1126.508</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>40163</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1096.672</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>40170</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1106.147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>40177</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1066.737</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>40184</v>
+      </c>
+      <c r="B20" t="n">
+        <v>994.051</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>40191</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1059.208</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>40198</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1078.881</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>40205</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1104.555</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>40212</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1126.672</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>40219</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1154.075</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>40226</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1200.695</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>40233</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1227.597</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>40240</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1196.337</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>40247</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1175.338</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>40254</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1124.978</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>40261</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1127.725</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>40268</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1124.679</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>40275</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1111.072</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>40282</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1093.863</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>40289</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1067.938</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>40296</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1053.074</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>40303</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1021.581</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>40310</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1064.462</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>40317</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1092.54</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>40324</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1084.219</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>40331</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1067.106</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40338</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1060.078</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>40345</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1066.441</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>40352</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1060.334</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>40359</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1043.38</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>40366</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1047.031</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>40373</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1058.516</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>40380</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1036.195</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>40387</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1045.219</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>40394</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1052.386</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>40401</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1045.18</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>40408</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1041.298</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>40415</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1049.221</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1034.529</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>40429</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1031.31</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>40436</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1026.976</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>40443</v>
+      </c>
+      <c r="B57" t="n">
+        <v>975.434</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>40450</v>
+      </c>
+      <c r="B58" t="n">
+        <v>995.183</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>40457</v>
+      </c>
+      <c r="B59" t="n">
+        <v>985.331</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>40464</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1022.21</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>40471</v>
+      </c>
+      <c r="B61" t="n">
+        <v>983.14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>40478</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1003.206</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>40485</v>
+      </c>
+      <c r="B63" t="n">
+        <v>992.204</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>40492</v>
+      </c>
+      <c r="B64" t="n">
+        <v>993.6849999999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>40499</v>
+      </c>
+      <c r="B65" t="n">
+        <v>983.736</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>40506</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1011.124</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>40513</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1003.827</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>40520</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1050.689</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>40527</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1053.748</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>40534</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1013.048</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>40541</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1027.089</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>40548</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1001.783</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>40555</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1066.028</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>40562</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1071.206</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>40569</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1078.051</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>40576</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1087.983</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>40583</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1152.388</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>40590</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1224.078</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>40597</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1265.869</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>40604</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1292.382</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>40611</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1358.776</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>40618</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1395.33</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>40625</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1391.98</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>40632</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1450.291</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>40639</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1472.385</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>40646</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1522.249</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>40653</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1486.65</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>40660</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1471.501</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>40667</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1467.32</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>40674</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1517.084</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>40681</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1547.236</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>40688</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1571.447</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>40695</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1599.81</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>40702</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1630.85</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>40709</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1650.065</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>40716</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1590.364</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>40723</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1617.276</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>40730</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1650.63</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>40737</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1679.08</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>40744</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1636.929</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>40751</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1652.667</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>40758</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1624.803</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>40765</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1649.269</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>40772</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1621.14</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>40779</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1605.613</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>40786</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1611.435</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>40793</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1615.771</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>40800</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1617.86</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>40807</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1567.602</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>40814</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1576.801</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>40821</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1604.285</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>40828</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1624.516</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>40835</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1600.008</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>40842</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1568.317</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>40849</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1571.93</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>40856</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1568.521</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>40863</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1583.716</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>40870</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1505.201</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>40877</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1520.197</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>40884</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1546.608</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>40891</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1601.495</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>40898</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1509.961</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>40905</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1534.135</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>40912</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1564.841</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>40919</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1572.456</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>40926</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1593.378</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>40933</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1529.646</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>40940</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1572.71</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>40947</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1600.651</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>40954</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1634.172</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>40961</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1621.626</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>40968</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1607.919</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>40975</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1591.922</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>40982</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1579.394</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>40989</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1523.382</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>40996</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1526.338</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>41003</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1548.61</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>41010</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1550.552</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>41017</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1562.988</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>41024</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1539.135</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>41031</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1492.46</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>41038</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1497.049</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>41045</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1501.657</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>41052</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1513.16</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>41059</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1522.91</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>41066</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1527.474</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>41073</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1549.83</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>41080</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1496.509</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>41087</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1461.231</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>41094</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1500.156</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>41101</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1514.001</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>41108</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1543.311</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>41115</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1551.501</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>41122</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1561.819</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>41129</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1553.199</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>41136</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1555.394</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>41143</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1511.753</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>41150</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1502.317</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>41157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1518.165</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>41164</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1505.899</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>41171</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1453.315</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>41178</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1424.89</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>41185</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1446.881</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>41192</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1469.565</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>41199</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1483.095</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>41206</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1477.35</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>41213</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1494.414</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>41220</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1509.945</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>41227</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1483.331</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>41234</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1503.622</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>41241</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1485.795</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>41248</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1526.122</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>41255</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1520.217</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>41262</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1517.22</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>41269</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1503.482</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41276</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1503.866</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41283</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1543.024</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41290</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1584.948</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41297</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1586.337</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41304</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1632.732</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41311</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1654.331</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>41318</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1683.304</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>41325</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1667.383</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>41332</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1683.532</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>41339</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1748.067</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>41346</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1760.956</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>41353</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1753.364</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>41360</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1776.369</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>41367</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1801.101</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>41374</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1843.724</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>41381</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1855.933</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>41388</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1818.122</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>41395</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1831.841</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>41402</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1853.217</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>41409</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1917.007</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>41416</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1961.69</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>41423</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1979.2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>41430</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2018.582</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>41437</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2031.047</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>41444</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1994.315</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>41451</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1981.754</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>41458</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2023.336</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>41465</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2070.591</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>41472</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2092.289</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>41479</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2094.92</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>41486</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2154.522</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>41493</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2171.441</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>41500</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2175.545</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>41507</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2193.671</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>41514</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2222.481</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>41521</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2266.587</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>41528</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2265.831</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>41535</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2293.383</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>41542</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2278.603</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>41549</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2311.359</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>41556</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2359.39</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2370.944</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>41570</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2357.446</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>41577</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2424.917</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>41584</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2440.588</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>41591</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2449.114</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>41598</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2473.552</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>41605</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2466.785</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>41612</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2492.609</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>41619</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2524.024</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>41626</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2521.3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>41633</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2474.155</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>41640</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2374.633</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>41647</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2453.039</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>41654</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2527.883</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>41661</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2522.89</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>41668</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2519.198</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>41675</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2542.276</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>41682</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2589.669</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>41689</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2616.352</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>41696</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2599.898</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>41703</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2629.608</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>41710</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2652.021</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>41717</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2644.893</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>41724</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2612.237</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>41731</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2581.373</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>41738</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2684.341</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>41745</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2724.744</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>41752</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2641.132</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>41759</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2609.418</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>41766</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2597.621</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>41773</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2630.836</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>41780</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2657.729</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>41787</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2629.199</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>41794</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2679.071</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>41801</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2709.51</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>41808</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2703.925</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>41815</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2640.303</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>41822</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2578.697</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>41829</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2622.832</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>41836</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2639.685</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>41843</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2792.302</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>41850</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2809.004</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>41857</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2789.33</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>41864</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2786.792</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>41871</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2790.174</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>41878</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2778.794</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>41885</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2777.409</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>41892</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2787.045</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>41899</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2797.996</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>41906</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2732.58</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>41913</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2705.717</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>41920</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2749.347</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>41927</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2793.29</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>41934</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2688.613</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>41941</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2629.809</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>41948</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2561.062</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>41955</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2568.099</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>41962</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2520.171</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>41969</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2486.574</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>41976</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2449.444</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>41983</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2433.138</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>41990</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2786.907</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>41997</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2681.801</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2574.784</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>42011</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2600.598</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>42018</v>
+      </c>
+      <c r="B282" t="n">
+        <v>2753.903</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>42025</v>
+      </c>
+      <c r="B283" t="n">
+        <v>2722.392</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>42032</v>
+      </c>
+      <c r="B284" t="n">
+        <v>2665.153</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>42039</v>
+      </c>
+      <c r="B285" t="n">
+        <v>2684.263</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>42046</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2536.607</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>42053</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2457.419</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>42060</v>
+      </c>
+      <c r="B288" t="n">
+        <v>2328.963</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>42067</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2522.095</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>42074</v>
+      </c>
+      <c r="B290" t="n">
+        <v>2688.257</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>42081</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2782.935</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>42088</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2706.627</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2667.344</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>42102</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2744.497</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>42109</v>
+      </c>
+      <c r="B295" t="n">
+        <v>2793.314</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>42116</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2679.047</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>42123</v>
+      </c>
+      <c r="B297" t="n">
+        <v>2593.777</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>42130</v>
+      </c>
+      <c r="B298" t="n">
+        <v>2595.402</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>42137</v>
+      </c>
+      <c r="B299" t="n">
+        <v>2619.317</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>42144</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2635.118</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>42151</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2510.791</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>42158</v>
+      </c>
+      <c r="B302" t="n">
+        <v>2444.765</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>42165</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2654.281</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>42172</v>
+      </c>
+      <c r="B304" t="n">
+        <v>2621.304</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>42179</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2530.324</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2457.406</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>42193</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2555.1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>42200</v>
+      </c>
+      <c r="B308" t="n">
+        <v>2620.137</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>42207</v>
+      </c>
+      <c r="B309" t="n">
+        <v>2631.543</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>42214</v>
+      </c>
+      <c r="B310" t="n">
+        <v>2624.646</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>42221</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2598.529</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>42228</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2558.957</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>42235</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2528.568</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>42242</v>
+      </c>
+      <c r="B314" t="n">
+        <v>2682.256</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>42249</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2682.003</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>42256</v>
+      </c>
+      <c r="B316" t="n">
+        <v>2731.228</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>42263</v>
+      </c>
+      <c r="B317" t="n">
+        <v>2696.511</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>42270</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2622.865</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B319" t="n">
+        <v>2514.321</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>42284</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2632.633</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>42291</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2697.18</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>42298</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2693.306</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>42305</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2657.762</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>42312</v>
+      </c>
+      <c r="B324" t="n">
+        <v>2642.566</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>42319</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2655.976</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>42326</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2634.137</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>42333</v>
+      </c>
+      <c r="B327" t="n">
+        <v>2553.608</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>42340</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2518.901</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>42347</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2523.87</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>42354</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2535.562</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>42361</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2408.573</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>42368</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2306.241</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>42375</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2121.654</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>42382</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2421.899</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>42389</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2454.769</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>42396</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2395.752</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>42403</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2374.971</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>42410</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2441.826</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>42417</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2478.361</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>42424</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2421.445</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>42431</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2481.508</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>42438</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2515.893</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>42445</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2499.512</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>42452</v>
+      </c>
+      <c r="B344" t="n">
+        <v>2422.534</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>42459</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2408.417</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>42466</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2391.977</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>42473</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2496.83</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>42480</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2470.25</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>42487</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2374.158</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>42494</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>42501</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2401.68</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>42508</v>
+      </c>
+      <c r="B352" t="n">
+        <v>2416.214</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>42515</v>
+      </c>
+      <c r="B353" t="n">
+        <v>2332.537</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2393.953</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>42529</v>
+      </c>
+      <c r="B355" t="n">
+        <v>2429.639</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>42536</v>
+      </c>
+      <c r="B356" t="n">
+        <v>2449.153</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>42543</v>
+      </c>
+      <c r="B357" t="n">
+        <v>2361.897</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>42550</v>
+      </c>
+      <c r="B358" t="n">
+        <v>2256.344</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>42557</v>
+      </c>
+      <c r="B359" t="n">
+        <v>2253.41</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>42564</v>
+      </c>
+      <c r="B360" t="n">
+        <v>2310.766</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>42571</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2327.654</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>42578</v>
+      </c>
+      <c r="B362" t="n">
+        <v>2322.008</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>42585</v>
+      </c>
+      <c r="B363" t="n">
+        <v>2332.761</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>42592</v>
+      </c>
+      <c r="B364" t="n">
+        <v>2395.226</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>42599</v>
+      </c>
+      <c r="B365" t="n">
+        <v>2328.544</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>42606</v>
+      </c>
+      <c r="B366" t="n">
+        <v>2358.138</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B367" t="n">
+        <v>2337.96</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>42620</v>
+      </c>
+      <c r="B368" t="n">
+        <v>2373.809</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>42627</v>
+      </c>
+      <c r="B369" t="n">
+        <v>2368.491</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>42634</v>
+      </c>
+      <c r="B370" t="n">
+        <v>2244.467</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>42641</v>
+      </c>
+      <c r="B371" t="n">
+        <v>2131.792</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>42648</v>
+      </c>
+      <c r="B372" t="n">
+        <v>1999.935</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>42655</v>
+      </c>
+      <c r="B373" t="n">
+        <v>2129.766</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>42662</v>
+      </c>
+      <c r="B374" t="n">
+        <v>2147.216</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>42669</v>
+      </c>
+      <c r="B375" t="n">
+        <v>2061.583</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>42676</v>
+      </c>
+      <c r="B376" t="n">
+        <v>2107.987</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>42683</v>
+      </c>
+      <c r="B377" t="n">
+        <v>2175.67</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>42690</v>
+      </c>
+      <c r="B378" t="n">
+        <v>2167.766</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>42697</v>
+      </c>
+      <c r="B379" t="n">
+        <v>2130.901</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B380" t="n">
+        <v>2096.684</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>42711</v>
+      </c>
+      <c r="B381" t="n">
+        <v>2143.979</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>42718</v>
+      </c>
+      <c r="B382" t="n">
+        <v>2138.296</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>42725</v>
+      </c>
+      <c r="B383" t="n">
+        <v>2023.009</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>42732</v>
+      </c>
+      <c r="B384" t="n">
+        <v>1952.555</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>42739</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1845.396</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>42746</v>
+      </c>
+      <c r="B386" t="n">
+        <v>2068.178</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>42753</v>
+      </c>
+      <c r="B387" t="n">
+        <v>2148.195</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>42760</v>
+      </c>
+      <c r="B388" t="n">
+        <v>2116.497</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>42767</v>
+      </c>
+      <c r="B389" t="n">
+        <v>2155.126</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>42774</v>
+      </c>
+      <c r="B390" t="n">
+        <v>2220.721</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>42781</v>
+      </c>
+      <c r="B391" t="n">
+        <v>2246.912</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>42788</v>
+      </c>
+      <c r="B392" t="n">
+        <v>2239.022</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>42795</v>
+      </c>
+      <c r="B393" t="n">
+        <v>2261.623</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>42802</v>
+      </c>
+      <c r="B394" t="n">
+        <v>2343.906</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>42809</v>
+      </c>
+      <c r="B395" t="n">
+        <v>2360.216</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>42816</v>
+      </c>
+      <c r="B396" t="n">
+        <v>2311.413</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>42823</v>
+      </c>
+      <c r="B397" t="n">
+        <v>2308.932</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>42830</v>
+      </c>
+      <c r="B398" t="n">
+        <v>2233.858</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>42837</v>
+      </c>
+      <c r="B399" t="n">
+        <v>2358.407</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>42844</v>
+      </c>
+      <c r="B400" t="n">
+        <v>2343.34</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>42851</v>
+      </c>
+      <c r="B401" t="n">
+        <v>2239.041</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>42858</v>
+      </c>
+      <c r="B402" t="n">
+        <v>2173.987</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>42865</v>
+      </c>
+      <c r="B403" t="n">
+        <v>2232.191</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>42872</v>
+      </c>
+      <c r="B404" t="n">
+        <v>2240.327</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>42879</v>
+      </c>
+      <c r="B405" t="n">
+        <v>2222.412</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B406" t="n">
+        <v>2221.628</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>42893</v>
+      </c>
+      <c r="B407" t="n">
+        <v>2272.308</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>42900</v>
+      </c>
+      <c r="B408" t="n">
+        <v>2274.716</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>42907</v>
+      </c>
+      <c r="B409" t="n">
+        <v>2209.82</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>42914</v>
+      </c>
+      <c r="B410" t="n">
+        <v>2162.742</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>42921</v>
+      </c>
+      <c r="B411" t="n">
+        <v>2076.34</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>42928</v>
+      </c>
+      <c r="B412" t="n">
+        <v>2220.769</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>42935</v>
+      </c>
+      <c r="B413" t="n">
+        <v>2254.092</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>42942</v>
+      </c>
+      <c r="B414" t="n">
+        <v>2280.565</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>42949</v>
+      </c>
+      <c r="B415" t="n">
+        <v>2271.315</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>42956</v>
+      </c>
+      <c r="B416" t="n">
+        <v>2332.293</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>42963</v>
+      </c>
+      <c r="B417" t="n">
+        <v>2336.388</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>42970</v>
+      </c>
+      <c r="B418" t="n">
+        <v>2359.64</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>42977</v>
+      </c>
+      <c r="B419" t="n">
+        <v>2364.546</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>42984</v>
+      </c>
+      <c r="B420" t="n">
+        <v>2366.129</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>42991</v>
+      </c>
+      <c r="B421" t="n">
+        <v>2358.933</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>42998</v>
+      </c>
+      <c r="B422" t="n">
+        <v>2292.801</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>43005</v>
+      </c>
+      <c r="B423" t="n">
+        <v>2212.709</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>43012</v>
+      </c>
+      <c r="B424" t="n">
+        <v>2149.215</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>43019</v>
+      </c>
+      <c r="B425" t="n">
+        <v>2264.498</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>43026</v>
+      </c>
+      <c r="B426" t="n">
+        <v>2281.294</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>43033</v>
+      </c>
+      <c r="B427" t="n">
+        <v>2243.832</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="B428" t="n">
+        <v>2243.215</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>43047</v>
+      </c>
+      <c r="B429" t="n">
+        <v>2311.929</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>43054</v>
+      </c>
+      <c r="B430" t="n">
+        <v>2336.255</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>43061</v>
+      </c>
+      <c r="B431" t="n">
+        <v>2339.907</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>43068</v>
+      </c>
+      <c r="B432" t="n">
+        <v>2294.895</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>43075</v>
+      </c>
+      <c r="B433" t="n">
+        <v>2325.09</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>43082</v>
+      </c>
+      <c r="B434" t="n">
+        <v>2352.562</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>43089</v>
+      </c>
+      <c r="B435" t="n">
+        <v>2269.164</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>43096</v>
+      </c>
+      <c r="B436" t="n">
+        <v>2201.425</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>43103</v>
+      </c>
+      <c r="B437" t="n">
+        <v>2045.93</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>43110</v>
+      </c>
+      <c r="B438" t="n">
+        <v>2232.897</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>43117</v>
+      </c>
+      <c r="B439" t="n">
+        <v>2249.899</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>43124</v>
+      </c>
+      <c r="B440" t="n">
+        <v>2210.944</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B441" t="n">
+        <v>2203.63</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>43138</v>
+      </c>
+      <c r="B442" t="n">
+        <v>2244.845</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>43145</v>
+      </c>
+      <c r="B443" t="n">
+        <v>2253.929</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>43152</v>
+      </c>
+      <c r="B444" t="n">
+        <v>2223.38</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B445" t="n">
+        <v>2232.947</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>43166</v>
+      </c>
+      <c r="B446" t="n">
+        <v>2252.016</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>43173</v>
+      </c>
+      <c r="B447" t="n">
+        <v>2204.829</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>43180</v>
+      </c>
+      <c r="B448" t="n">
+        <v>2123.587</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>43187</v>
+      </c>
+      <c r="B449" t="n">
+        <v>2113.321</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>43194</v>
+      </c>
+      <c r="B450" t="n">
+        <v>2094.045</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>43201</v>
+      </c>
+      <c r="B451" t="n">
+        <v>2119.965</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>43208</v>
+      </c>
+      <c r="B452" t="n">
+        <v>2141.39</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>43215</v>
+      </c>
+      <c r="B453" t="n">
+        <v>2052.59</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>43222</v>
+      </c>
+      <c r="B454" t="n">
+        <v>1994.584</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>43229</v>
+      </c>
+      <c r="B455" t="n">
+        <v>2025.75</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>43236</v>
+      </c>
+      <c r="B456" t="n">
+        <v>2036.27</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>43243</v>
+      </c>
+      <c r="B457" t="n">
+        <v>2021.946</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>43250</v>
+      </c>
+      <c r="B458" t="n">
+        <v>2019.681</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>43257</v>
+      </c>
+      <c r="B459" t="n">
+        <v>2029.579</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>43264</v>
+      </c>
+      <c r="B460" t="n">
+        <v>2057.269</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>43271</v>
+      </c>
+      <c r="B461" t="n">
+        <v>1971.983</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>43278</v>
+      </c>
+      <c r="B462" t="n">
+        <v>1940.847</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>43285</v>
+      </c>
+      <c r="B463" t="n">
+        <v>1917.987</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>43292</v>
+      </c>
+      <c r="B464" t="n">
+        <v>1958.085</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>43299</v>
+      </c>
+      <c r="B465" t="n">
+        <v>1967.119</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>43306</v>
+      </c>
+      <c r="B466" t="n">
+        <v>1947.119</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B467" t="n">
+        <v>1937.548</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>43320</v>
+      </c>
+      <c r="B468" t="n">
+        <v>1951.389</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>43327</v>
+      </c>
+      <c r="B469" t="n">
+        <v>1922.547</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>43334</v>
+      </c>
+      <c r="B470" t="n">
+        <v>1883.254</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>43341</v>
+      </c>
+      <c r="B471" t="n">
+        <v>1883.924</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>43348</v>
+      </c>
+      <c r="B472" t="n">
+        <v>1895.01</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>43355</v>
+      </c>
+      <c r="B473" t="n">
+        <v>1920.976</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
+        <v>43362</v>
+      </c>
+      <c r="B474" t="n">
+        <v>1879.896</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>43369</v>
+      </c>
+      <c r="B475" t="n">
+        <v>1832.5</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>43376</v>
+      </c>
+      <c r="B476" t="n">
+        <v>1801.576</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>43383</v>
+      </c>
+      <c r="B477" t="n">
+        <v>1865.065</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>43390</v>
+      </c>
+      <c r="B478" t="n">
+        <v>1853.533</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>43397</v>
+      </c>
+      <c r="B479" t="n">
+        <v>1817.608</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B480" t="n">
+        <v>1802.252</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>43411</v>
+      </c>
+      <c r="B481" t="n">
+        <v>1826.131</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>43418</v>
+      </c>
+      <c r="B482" t="n">
+        <v>1801.383</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>43425</v>
+      </c>
+      <c r="B483" t="n">
+        <v>1757.729</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>43432</v>
+      </c>
+      <c r="B484" t="n">
+        <v>1738.659</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>43439</v>
+      </c>
+      <c r="B485" t="n">
+        <v>1738.141</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>43446</v>
+      </c>
+      <c r="B486" t="n">
+        <v>1735.539</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>43453</v>
+      </c>
+      <c r="B487" t="n">
+        <v>1699.138</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>43460</v>
+      </c>
+      <c r="B488" t="n">
+        <v>1661.223</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>43467</v>
+      </c>
+      <c r="B489" t="n">
+        <v>1621.856</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>43474</v>
+      </c>
+      <c r="B490" t="n">
+        <v>1650.387</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>43481</v>
+      </c>
+      <c r="B491" t="n">
+        <v>1664.138</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>43488</v>
+      </c>
+      <c r="B492" t="n">
+        <v>1621.876</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>43495</v>
+      </c>
+      <c r="B493" t="n">
+        <v>1617.539</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>43502</v>
+      </c>
+      <c r="B494" t="n">
+        <v>1648.553</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>43509</v>
+      </c>
+      <c r="B495" t="n">
+        <v>1649.973</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>43516</v>
+      </c>
+      <c r="B496" t="n">
+        <v>1632.58</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>43523</v>
+      </c>
+      <c r="B497" t="n">
+        <v>1640.75</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>43530</v>
+      </c>
+      <c r="B498" t="n">
+        <v>1721.614</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>43537</v>
+      </c>
+      <c r="B499" t="n">
+        <v>1703.948</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>43544</v>
+      </c>
+      <c r="B500" t="n">
+        <v>1629.731</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>43551</v>
+      </c>
+      <c r="B501" t="n">
+        <v>1622.282</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>43558</v>
+      </c>
+      <c r="B502" t="n">
+        <v>1600.398</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>43565</v>
+      </c>
+      <c r="B503" t="n">
+        <v>1634.591</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>43572</v>
+      </c>
+      <c r="B504" t="n">
+        <v>1604.479</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>43579</v>
+      </c>
+      <c r="B505" t="n">
+        <v>1505.43</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B506" t="n">
+        <v>1461.419</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>43593</v>
+      </c>
+      <c r="B507" t="n">
+        <v>1484.975</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>43600</v>
+      </c>
+      <c r="B508" t="n">
+        <v>1509.867</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>43607</v>
+      </c>
+      <c r="B509" t="n">
+        <v>1518.157</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>43614</v>
+      </c>
+      <c r="B510" t="n">
+        <v>1544.711</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>43621</v>
+      </c>
+      <c r="B511" t="n">
+        <v>1537.089</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>43628</v>
+      </c>
+      <c r="B512" t="n">
+        <v>1586.963</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>43635</v>
+      </c>
+      <c r="B513" t="n">
+        <v>1567.955</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>43642</v>
+      </c>
+      <c r="B514" t="n">
+        <v>1504.737</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>43649</v>
+      </c>
+      <c r="B515" t="n">
+        <v>1456.496</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>43656</v>
+      </c>
+      <c r="B516" t="n">
+        <v>1499.806</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>43663</v>
+      </c>
+      <c r="B517" t="n">
+        <v>1515.664</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>43670</v>
+      </c>
+      <c r="B518" t="n">
+        <v>1518.322</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B519" t="n">
+        <v>1534.523</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B520" t="n">
+        <v>1539.244</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>43691</v>
+      </c>
+      <c r="B521" t="n">
+        <v>1550.406</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>43698</v>
+      </c>
+      <c r="B522" t="n">
+        <v>1516.045</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>43705</v>
+      </c>
+      <c r="B523" t="n">
+        <v>1498.68</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>43712</v>
+      </c>
+      <c r="B524" t="n">
+        <v>1487.555</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>43719</v>
+      </c>
+      <c r="B525" t="n">
+        <v>1456.796</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>43726</v>
+      </c>
+      <c r="B526" t="n">
+        <v>1394.122</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>43733</v>
+      </c>
+      <c r="B527" t="n">
+        <v>1400.171</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>43740</v>
+      </c>
+      <c r="B528" t="n">
+        <v>1469.2</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>43747</v>
+      </c>
+      <c r="B529" t="n">
+        <v>1506.455</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>43754</v>
+      </c>
+      <c r="B530" t="n">
+        <v>1480.368</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>43761</v>
+      </c>
+      <c r="B531" t="n">
+        <v>1449.043</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>43768</v>
+      </c>
+      <c r="B532" t="n">
+        <v>1483.702</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>43775</v>
+      </c>
+      <c r="B533" t="n">
+        <v>1523.939</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>43782</v>
+      </c>
+      <c r="B534" t="n">
+        <v>1532.316</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>43789</v>
+      </c>
+      <c r="B535" t="n">
+        <v>1518.759</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="B536" t="n">
+        <v>1526.697</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>43803</v>
+      </c>
+      <c r="B537" t="n">
+        <v>1573.261</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>43810</v>
+      </c>
+      <c r="B538" t="n">
+        <v>1638.657</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>43817</v>
+      </c>
+      <c r="B539" t="n">
+        <v>1660.249</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>43824</v>
+      </c>
+      <c r="B540" t="n">
+        <v>1651.927</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="B541" t="n">
+        <v>1615.846</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>43838</v>
+      </c>
+      <c r="B542" t="n">
+        <v>1654.086</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>43845</v>
+      </c>
+      <c r="B543" t="n">
+        <v>1686.801</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>43852</v>
+      </c>
+      <c r="B544" t="n">
+        <v>1621.689</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>43859</v>
+      </c>
+      <c r="B545" t="n">
+        <v>1616.342</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>43866</v>
+      </c>
+      <c r="B546" t="n">
+        <v>1645.016</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>43873</v>
+      </c>
+      <c r="B547" t="n">
+        <v>1675.566</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>43880</v>
+      </c>
+      <c r="B548" t="n">
+        <v>1654.118</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>43887</v>
+      </c>
+      <c r="B549" t="n">
+        <v>1626.469</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>43894</v>
+      </c>
+      <c r="B550" t="n">
+        <v>1698.855</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>43901</v>
+      </c>
+      <c r="B551" t="n">
+        <v>1744.525</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>43908</v>
+      </c>
+      <c r="B552" t="n">
+        <v>1895.588</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>43915</v>
+      </c>
+      <c r="B553" t="n">
+        <v>2186.971</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B554" t="n">
+        <v>2533.908</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>43929</v>
+      </c>
+      <c r="B555" t="n">
+        <v>2760.451</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>43936</v>
+      </c>
+      <c r="B556" t="n">
+        <v>2919.041</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>43943</v>
+      </c>
+      <c r="B557" t="n">
+        <v>3103.504</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>43950</v>
+      </c>
+      <c r="B558" t="n">
+        <v>3159.142</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B559" t="n">
+        <v>3158.938</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B560" t="n">
+        <v>3156.929</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B561" t="n">
+        <v>3273.303</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B562" t="n">
+        <v>3268.144</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B563" t="n">
+        <v>3237.461</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B564" t="n">
+        <v>3182.228</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B565" t="n">
+        <v>3078.491</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B566" t="n">
+        <v>2918.756</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B567" t="n">
+        <v>2884.819</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>44020</v>
+      </c>
+      <c r="B568" t="n">
+        <v>2813.967</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B569" t="n">
+        <v>2777.603</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B570" t="n">
+        <v>2631.78</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B571" t="n">
+        <v>2615.272</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>44048</v>
+      </c>
+      <c r="B572" t="n">
+        <v>2713.287</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>44055</v>
+      </c>
+      <c r="B573" t="n">
+        <v>2788.961</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>44062</v>
+      </c>
+      <c r="B574" t="n">
+        <v>2827.685</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>44069</v>
+      </c>
+      <c r="B575" t="n">
+        <v>2815.794</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>44076</v>
+      </c>
+      <c r="B576" t="n">
+        <v>2851.916</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>44083</v>
+      </c>
+      <c r="B577" t="n">
+        <v>2857.463</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>44090</v>
+      </c>
+      <c r="B578" t="n">
+        <v>2885.412</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>44097</v>
+      </c>
+      <c r="B579" t="n">
+        <v>2830.499</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B580" t="n">
+        <v>2839.316</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="B581" t="n">
+        <v>2840.86</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>44118</v>
+      </c>
+      <c r="B582" t="n">
+        <v>2861.929</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>44125</v>
+      </c>
+      <c r="B583" t="n">
+        <v>2860.48</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>44132</v>
+      </c>
+      <c r="B584" t="n">
+        <v>2880.781</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>44139</v>
+      </c>
+      <c r="B585" t="n">
+        <v>2966.737</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>44146</v>
+      </c>
+      <c r="B586" t="n">
+        <v>2976.17</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="B587" t="n">
+        <v>3043.822</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="B588" t="n">
+        <v>3083.636</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="B589" t="n">
+        <v>3117.307</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>44174</v>
+      </c>
+      <c r="B590" t="n">
+        <v>3117.48</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>44181</v>
+      </c>
+      <c r="B591" t="n">
+        <v>3168.24</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>44188</v>
+      </c>
+      <c r="B592" t="n">
+        <v>3143.041</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>44195</v>
+      </c>
+      <c r="B593" t="n">
+        <v>3122.156</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>44202</v>
+      </c>
+      <c r="B594" t="n">
+        <v>3068.284</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>44209</v>
+      </c>
+      <c r="B595" t="n">
+        <v>3183.917</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>44216</v>
+      </c>
+      <c r="B596" t="n">
+        <v>3154.624</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>44223</v>
+      </c>
+      <c r="B597" t="n">
+        <v>3163.008</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>44230</v>
+      </c>
+      <c r="B598" t="n">
+        <v>3193.118</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>44237</v>
+      </c>
+      <c r="B599" t="n">
+        <v>3258.919</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="B600" t="n">
+        <v>3378.907</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>44251</v>
+      </c>
+      <c r="B601" t="n">
+        <v>3369.02</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="B602" t="n">
+        <v>3503.12</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="B603" t="n">
+        <v>3592.01</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="B604" t="n">
+        <v>3681.03</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="B605" t="n">
+        <v>3826.375</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B606" t="n">
+        <v>3876.162</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="B607" t="n">
+        <v>3932.949</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="B608" t="n">
+        <v>3977.813</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="B609" t="n">
+        <v>3825.455</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="B610" t="n">
+        <v>3829.269</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="B611" t="n">
+        <v>3873.728</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B612" t="n">
+        <v>3947.565</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="B613" t="n">
+        <v>3919.807</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B614" t="n">
+        <v>3805.178</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B615" t="n">
+        <v>3814.127</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="B616" t="n">
+        <v>3874.371</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B617" t="n">
+        <v>3940.038</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="B618" t="n">
+        <v>3808.042</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B619" t="n">
+        <v>3780.791</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B620" t="n">
+        <v>3870.568</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="B621" t="n">
+        <v>3903.058</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="B622" t="n">
+        <v>3972.94</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="B623" t="n">
+        <v>3984.371</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B624" t="n">
+        <v>4005.578</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B625" t="n">
+        <v>4090.506</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B626" t="n">
+        <v>4186.711</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="B627" t="n">
+        <v>4167.748</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B628" t="n">
         <v>4193.981</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="629">
+      <c r="A629" s="2" t="n">
         <v>44447</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B629" t="n">
         <v>4250.506</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+    <row r="630">
+      <c r="A630" s="2" t="n">
         <v>44454</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B630" t="n">
         <v>4271.184</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row r="631">
+      <c r="A631" s="2" t="n">
         <v>44461</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B631" t="n">
         <v>4156.747</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+    <row r="632">
+      <c r="A632" s="2" t="n">
         <v>44468</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B632" t="n">
         <v>4125.348</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
+    <row r="633">
+      <c r="A633" s="2" t="n">
         <v>44475</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B633" t="n">
         <v>4130.05</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
+    <row r="634">
+      <c r="A634" s="2" t="n">
         <v>44482</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B634" t="n">
         <v>4194.503</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
+    <row r="635">
+      <c r="A635" s="2" t="n">
         <v>44489</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B635" t="n">
         <v>4134.714</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
+    <row r="636">
+      <c r="A636" s="2" t="n">
         <v>44496</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B636" t="n">
         <v>4077.17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
+    <row r="637">
+      <c r="A637" s="2" t="n">
         <v>44503</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B637" t="n">
         <v>4086.336</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
+    <row r="638">
+      <c r="A638" s="2" t="n">
         <v>44510</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B638" t="n">
         <v>4169.041</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
+    <row r="639">
+      <c r="A639" s="2" t="n">
         <v>44517</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B639" t="n">
         <v>4209.802</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
+    <row r="640">
+      <c r="A640" s="2" t="n">
         <v>44524</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B640" t="n">
         <v>4162.81</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
+    <row r="641">
+      <c r="A641" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B641" t="n">
         <v>4224.865</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
+    <row r="642">
+      <c r="A642" s="2" t="n">
         <v>44538</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B642" t="n">
         <v>4275.806</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
+    <row r="643">
+      <c r="A643" s="2" t="n">
         <v>44545</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B643" t="n">
         <v>4251.431</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
+    <row r="644">
+      <c r="A644" s="2" t="n">
         <v>44552</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B644" t="n">
         <v>4185.009</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
+    <row r="645">
+      <c r="A645" s="2" t="n">
         <v>44559</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B645" t="n">
         <v>4116.196</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
+    <row r="646">
+      <c r="A646" s="2" t="n">
         <v>44566</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B646" t="n">
         <v>3859.731</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
+    <row r="647">
+      <c r="A647" s="2" t="n">
         <v>44573</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B647" t="n">
         <v>3973.554</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
+    <row r="648">
+      <c r="A648" s="2" t="n">
         <v>44580</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B648" t="n">
         <v>3932.521</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
+    <row r="649">
+      <c r="A649" s="2" t="n">
         <v>44587</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B649" t="n">
         <v>3796.174</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
+    <row r="650">
+      <c r="A650" s="2" t="n">
         <v>44594</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B650" t="n">
         <v>3789.714</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
+    <row r="651">
+      <c r="A651" s="2" t="n">
         <v>44601</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B651" t="n">
         <v>3771.911</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
+    <row r="652">
+      <c r="A652" s="2" t="n">
         <v>44608</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B652" t="n">
         <v>3799.973</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
+    <row r="653">
+      <c r="A653" s="2" t="n">
         <v>44615</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B653" t="n">
         <v>3769.869</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
+    <row r="654">
+      <c r="A654" s="2" t="n">
         <v>44622</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B654" t="n">
         <v>3844.716</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
+    <row r="655">
+      <c r="A655" s="2" t="n">
         <v>44629</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B655" t="n">
         <v>3959.659</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
+    <row r="656">
+      <c r="A656" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B656" t="n">
         <v>3961.721</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
+    <row r="657">
+      <c r="A657" s="2" t="n">
         <v>44643</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B657" t="n">
         <v>3801.095</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
+    <row r="658">
+      <c r="A658" s="2" t="n">
         <v>44650</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B658" t="n">
         <v>3829.68</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
+    <row r="659">
+      <c r="A659" s="2" t="n">
         <v>44657</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B659" t="n">
         <v>3834.183</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
+    <row r="660">
+      <c r="A660" s="2" t="n">
         <v>44664</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B660" t="n">
         <v>3823.644</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="3" t="n">
+    <row r="661">
+      <c r="A661" s="2" t="n">
         <v>44671</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B661" t="n">
         <v>3652.101</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="n">
+    <row r="662">
+      <c r="A662" s="2" t="n">
         <v>44678</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B662" t="n">
         <v>3331.982</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="3" t="n">
+    <row r="663">
+      <c r="A663" s="2" t="n">
         <v>44685</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B663" t="n">
         <v>3296.085</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="3" t="n">
+    <row r="664">
+      <c r="A664" s="2" t="n">
         <v>44692</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B664" t="n">
         <v>3288.552</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="3" t="n">
+    <row r="665">
+      <c r="A665" s="2" t="n">
         <v>44699</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B665" t="n">
         <v>3356.377</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="3" t="n">
+    <row r="666">
+      <c r="A666" s="2" t="n">
         <v>44706</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B666" t="n">
         <v>3306.18</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="3" t="n">
+    <row r="667">
+      <c r="A667" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B667" t="n">
         <v>3322.03</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="3" t="n">
+    <row r="668">
+      <c r="A668" s="2" t="n">
         <v>44720</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B668" t="n">
         <v>3339.405</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="3" t="n">
+    <row r="669">
+      <c r="A669" s="2" t="n">
         <v>44727</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B669" t="n">
         <v>3283.954</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="3" t="n">
+    <row r="670">
+      <c r="A670" s="2" t="n">
         <v>44734</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B670" t="n">
         <v>3147.556</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="3" t="n">
+    <row r="671">
+      <c r="A671" s="2" t="n">
         <v>44741</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B671" t="n">
         <v>3130.087</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="3" t="n">
+    <row r="672">
+      <c r="A672" s="2" t="n">
         <v>44748</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B672" t="n">
         <v>3190.627</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="3" t="n">
+    <row r="673">
+      <c r="A673" s="2" t="n">
         <v>44755</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B673" t="n">
         <v>3273.436</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="3" t="n">
+    <row r="674">
+      <c r="A674" s="2" t="n">
         <v>44762</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B674" t="n">
         <v>3284.324</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="3" t="n">
+    <row r="675">
+      <c r="A675" s="2" t="n">
         <v>44769</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B675" t="n">
         <v>3256.875</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="3" t="n">
+    <row r="676">
+      <c r="A676" s="2" t="n">
         <v>44776</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B676" t="n">
         <v>3259.011</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="3" t="n">
+    <row r="677">
+      <c r="A677" s="2" t="n">
         <v>44783</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B677" t="n">
         <v>3348.147</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="3" t="n">
+    <row r="678">
+      <c r="A678" s="2" t="n">
         <v>44790</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B678" t="n">
         <v>3346.75</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="3" t="n">
+    <row r="679">
+      <c r="A679" s="2" t="n">
         <v>44797</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B679" t="n">
         <v>3307.365</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="3" t="n">
+    <row r="680">
+      <c r="A680" s="2" t="n">
         <v>44804</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B680" t="n">
         <v>3248.654</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="3" t="n">
+    <row r="681">
+      <c r="A681" s="2" t="n">
         <v>44811</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B681" t="n">
         <v>3285.498</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="3" t="n">
+    <row r="682">
+      <c r="A682" s="2" t="n">
         <v>44818</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B682" t="n">
         <v>3234.928</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="3" t="n">
+    <row r="683">
+      <c r="A683" s="2" t="n">
         <v>44825</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B683" t="n">
         <v>3104.032</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="3" t="n">
+    <row r="684">
+      <c r="A684" s="2" t="n">
         <v>44832</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B684" t="n">
         <v>2960.598</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="3" t="n">
+    <row r="685">
+      <c r="A685" s="2" t="n">
         <v>44839</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B685" t="n">
         <v>2972.874</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="3" t="n">
+    <row r="686">
+      <c r="A686" s="2" t="n">
         <v>44846</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B686" t="n">
         <v>3087.912</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="3" t="n">
+    <row r="687">
+      <c r="A687" s="2" t="n">
         <v>44853</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B687" t="n">
         <v>3092.044</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="3" t="n">
+    <row r="688">
+      <c r="A688" s="2" t="n">
         <v>44860</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B688" t="n">
         <v>3042.838</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="3" t="n">
+    <row r="689">
+      <c r="A689" s="2" t="n">
         <v>44867</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B689" t="n">
         <v>3062.727</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="3" t="n">
+    <row r="690">
+      <c r="A690" s="2" t="n">
         <v>44874</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B690" t="n">
         <v>3067.888</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="3" t="n">
+    <row r="691">
+      <c r="A691" s="2" t="n">
         <v>44881</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B691" t="n">
         <v>3128.277</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="3" t="n">
+    <row r="692">
+      <c r="A692" s="2" t="n">
         <v>44888</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B692" t="n">
         <v>3160.73</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="3" t="n">
+    <row r="693">
+      <c r="A693" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B693" t="n">
         <v>3168.995</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="3" t="n">
+    <row r="694">
+      <c r="A694" s="2" t="n">
         <v>44902</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B694" t="n">
         <v>3199.048</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="3" t="n">
+    <row r="695">
+      <c r="A695" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B695" t="n">
         <v>3188.634</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="3" t="n">
+    <row r="696">
+      <c r="A696" s="2" t="n">
         <v>44916</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B696" t="n">
         <v>3088.621</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="3" t="n">
+    <row r="697">
+      <c r="A697" s="2" t="n">
         <v>44923</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B697" t="n">
         <v>3017.889</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="3" t="n">
+    <row r="698">
+      <c r="A698" s="2" t="n">
         <v>44930</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B698" t="n">
         <v>2830.144</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="3" t="n">
+    <row r="699">
+      <c r="A699" s="2" t="n">
         <v>44937</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B699" t="n">
         <v>3081.237</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="3" t="n">
+    <row r="700">
+      <c r="A700" s="2" t="n">
         <v>44944</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B700" t="n">
         <v>3147.332</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="3" t="n">
+    <row r="701">
+      <c r="A701" s="2" t="n">
         <v>44951</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B701" t="n">
         <v>3031.889</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="3" t="n">
+    <row r="702">
+      <c r="A702" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B702" t="n">
         <v>3015.506</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="3" t="n">
+    <row r="703">
+      <c r="A703" s="2" t="n">
         <v>44965</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B703" t="n">
         <v>3037.584</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="3" t="n">
+    <row r="704">
+      <c r="A704" s="2" t="n">
         <v>44972</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B704" t="n">
         <v>3041.038</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="3" t="n">
+    <row r="705">
+      <c r="A705" s="2" t="n">
         <v>44979</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B705" t="n">
         <v>3016.577</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="3" t="n">
+    <row r="706">
+      <c r="A706" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B706" t="n">
         <v>2998.303</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="3" t="n">
+    <row r="707">
+      <c r="A707" s="2" t="n">
         <v>44993</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B707" t="n">
         <v>2999.72</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="3" t="n">
+    <row r="708">
+      <c r="A708" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B708" t="n">
         <v>3251.482</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="3" t="n">
+    <row r="709">
+      <c r="A709" s="2" t="n">
         <v>45007</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B709" t="n">
         <v>3425.075</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="3" t="n">
+    <row r="710">
+      <c r="A710" s="2" t="n">
         <v>45014</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B710" t="n">
         <v>3437.592</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="3" t="n">
+    <row r="711">
+      <c r="A711" s="2" t="n">
         <v>45021</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B711" t="n">
         <v>3292.058</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="3" t="n">
+    <row r="712">
+      <c r="A712" s="2" t="n">
         <v>45028</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B712" t="n">
         <v>3413.989</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="3" t="n">
+    <row r="713">
+      <c r="A713" s="2" t="n">
         <v>45035</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B713" t="n">
         <v>3303.152</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="3" t="n">
+    <row r="714">
+      <c r="A714" s="2" t="n">
         <v>45042</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B714" t="n">
         <v>3135.655</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="3" t="n">
+    <row r="715">
+      <c r="A715" s="2" t="n">
         <v>45049</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B715" t="n">
         <v>3089.706</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="3" t="n">
+    <row r="716">
+      <c r="A716" s="2" t="n">
         <v>45056</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B716" t="n">
         <v>3196.429</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="3" t="n">
+    <row r="717">
+      <c r="A717" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B717" t="n">
         <v>3248.878</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="3" t="n">
+    <row r="718">
+      <c r="A718" s="2" t="n">
         <v>45070</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B718" t="n">
         <v>3240.172</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="3" t="n">
+    <row r="719">
+      <c r="A719" s="2" t="n">
         <v>45077</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B719" t="n">
         <v>3309.447</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="3" t="n">
+    <row r="720">
+      <c r="A720" s="2" t="n">
         <v>45084</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B720" t="n">
         <v>3349.751</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="3" t="n">
+    <row r="721">
+      <c r="A721" s="2" t="n">
         <v>45091</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B721" t="n">
         <v>3325.261</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="3" t="n">
+    <row r="722">
+      <c r="A722" s="2" t="n">
         <v>45098</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B722" t="n">
         <v>3251.558</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="3" t="n">
+    <row r="723">
+      <c r="A723" s="2" t="n">
         <v>45105</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B723" t="n">
         <v>3171.567</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="3" t="n">
+    <row r="724">
+      <c r="A724" s="2" t="n">
         <v>45112</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B724" t="n">
         <v>3114.989</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="3" t="n">
+    <row r="725">
+      <c r="A725" s="2" t="n">
         <v>45119</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B725" t="n">
         <v>3166.607</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="3" t="n">
+    <row r="726">
+      <c r="A726" s="2" t="n">
         <v>45126</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B726" t="n">
         <v>3230.457</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="3" t="n">
+    <row r="727">
+      <c r="A727" s="2" t="n">
         <v>45133</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B727" t="n">
         <v>3172.244</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="3" t="n">
+    <row r="728">
+      <c r="A728" s="2" t="n">
         <v>45140</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B728" t="n">
         <v>3189.533</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="3" t="n">
+    <row r="729">
+      <c r="A729" s="2" t="n">
         <v>45147</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B729" t="n">
         <v>3222.856</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="3" t="n">
+    <row r="730">
+      <c r="A730" s="2" t="n">
         <v>45154</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B730" t="n">
         <v>3245.971</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="3" t="n">
+    <row r="731">
+      <c r="A731" s="2" t="n">
         <v>45161</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B731" t="n">
         <v>3186.789</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="3" t="n">
+    <row r="732">
+      <c r="A732" s="2" t="n">
         <v>45168</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B732" t="n">
         <v>3238.345</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="3" t="n">
+    <row r="733">
+      <c r="A733" s="2" t="n">
         <v>45175</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B733" t="n">
         <v>3307.291</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="3" t="n">
+    <row r="734">
+      <c r="A734" s="2" t="n">
         <v>45182</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B734" t="n">
         <v>3335.459</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="3" t="n">
+    <row r="735">
+      <c r="A735" s="2" t="n">
         <v>45189</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B735" t="n">
         <v>3231.649</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="3" t="n">
+    <row r="736">
+      <c r="A736" s="2" t="n">
         <v>45196</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B736" t="n">
         <v>3170.324</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="3" t="n">
+    <row r="737">
+      <c r="A737" s="2" t="n">
         <v>45203</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B737" t="n">
         <v>3145.72</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="3" t="n">
+    <row r="738">
+      <c r="A738" s="2" t="n">
         <v>45210</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B738" t="n">
         <v>3288.945</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="3" t="n">
+    <row r="739">
+      <c r="A739" s="2" t="n">
         <v>45217</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B739" t="n">
         <v>3353.881</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="3" t="n">
+    <row r="740">
+      <c r="A740" s="2" t="n">
         <v>45224</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B740" t="n">
         <v>3261.886</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="3" t="n">
+    <row r="741">
+      <c r="A741" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B741" t="n">
         <v>3267.216</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="3" t="n">
+    <row r="742">
+      <c r="A742" s="2" t="n">
         <v>45238</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B742" t="n">
         <v>3328.908</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="3" t="n">
+    <row r="743">
+      <c r="A743" s="2" t="n">
         <v>45245</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B743" t="n">
         <v>3391.713</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="3" t="n">
+    <row r="744">
+      <c r="A744" s="2" t="n">
         <v>45252</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B744" t="n">
         <v>3453.853</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="3" t="n">
+    <row r="745">
+      <c r="A745" s="2" t="n">
         <v>45259</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B745" t="n">
         <v>3441.581</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="3" t="n">
+    <row r="746">
+      <c r="A746" s="2" t="n">
         <v>45266</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B746" t="n">
         <v>3513.374</v>
       </c>
     </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="B747" t="n">
+        <v>3540.619</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="B748" t="n">
+        <v>3536.105</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1426,14 +6472,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>WRESBAL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
@@ -1445,31 +6491,31 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>realtime_start</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-12-10</t>
+          <t>2023-12-25</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>realtime_end</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-12-10</t>
+          <t>2023-12-25</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
@@ -1481,7 +6527,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>observation_start</t>
         </is>
@@ -1493,19 +6539,19 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>observation_end</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>2023-12-20</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>frequency</t>
         </is>
@@ -1517,7 +6563,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>frequency_short</t>
         </is>
@@ -1529,7 +6575,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>units</t>
         </is>
@@ -1541,7 +6587,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>units_short</t>
         </is>
@@ -1553,7 +6599,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>seasonal_adjustment</t>
         </is>
@@ -1565,7 +6611,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>seasonal_adjustment_short</t>
         </is>
@@ -1577,29 +6623,29 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>last_updated</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-12-07 15:35:02-06</t>
+          <t>2023-12-21 15:35:02-06</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>popularity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
